--- a/data/Japanese Vocab.xlsx
+++ b/data/Japanese Vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Japanese\Anki\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3F989E-C15B-4D00-B9C9-0A7C2FD9A3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BC5D25-C3C0-44BA-AFFE-37A1F8D86E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="10350" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="1320">
   <si>
     <t>translation</t>
   </si>
@@ -928,15 +928,9 @@
     <t>To dance</t>
   </si>
   <si>
-    <t>(Something) ends</t>
-  </si>
-  <si>
     <t>To be popular</t>
   </si>
   <si>
-    <t>(Something) begins</t>
-  </si>
-  <si>
     <t>To play (a string instrument or piano)</t>
   </si>
   <si>
@@ -976,6 +970,246 @@
     <t>To take (a thing)</t>
   </si>
   <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Train station</t>
+  </si>
+  <si>
+    <t>Rich person</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>This year</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Subway</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Barber</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Warm</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>To stay</t>
+  </si>
+  <si>
+    <t>To become</t>
+  </si>
+  <si>
+    <t>To pay</t>
+  </si>
+  <si>
+    <t>To decide</t>
+  </si>
+  <si>
+    <t>To travel</t>
+  </si>
+  <si>
+    <t>To practice</t>
+  </si>
+  <si>
+    <t>Number one</t>
+  </si>
+  <si>
+    <t>X months</t>
+  </si>
+  <si>
+    <t>Recently</t>
+  </si>
+  <si>
+    <t>X weeks</t>
+  </si>
+  <si>
+    <t>How</t>
+  </si>
+  <si>
+    <t>Which (casual)</t>
+  </si>
+  <si>
+    <t>How much/long</t>
+  </si>
+  <si>
+    <t>X years</t>
+  </si>
+  <si>
+    <t>Quickly</t>
+  </si>
+  <si>
+    <t>Sweet / snack</t>
+  </si>
+  <si>
+    <t>New Year's Day</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>Festival</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Hot spring</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>Foreign country</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>This way / this person / this direction</t>
+  </si>
+  <si>
+    <t>This semester</t>
+  </si>
+  <si>
+    <t>Class / lesson</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Shinto shrine</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>To wake up</t>
+  </si>
+  <si>
+    <t>To become hungry</t>
+  </si>
+  <si>
+    <t>To learn</t>
+  </si>
+  <si>
+    <t>To climb</t>
+  </si>
+  <si>
+    <t>To work</t>
+  </si>
+  <si>
+    <t>To get tired</t>
+  </si>
+  <si>
+    <t>To quit</t>
+  </si>
+  <si>
+    <t>To argue</t>
+  </si>
+  <si>
+    <t>To introduce</t>
+  </si>
+  <si>
+    <t>To be late (for an appointment)</t>
+  </si>
+  <si>
+    <t>To study abroad</t>
+  </si>
+  <si>
+    <t>Writer</t>
+  </si>
+  <si>
+    <t>Journalist</t>
+  </si>
+  <si>
+    <t>Police officer</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Astronaut</t>
+  </si>
+  <si>
+    <t>Baseball player</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>Actress</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Firefighter</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Only</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>After a long time</t>
+  </si>
+  <si>
+    <t>So-so</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>add in front of son or daughter to turn into grandson, grandaughter, etc</t>
+  </si>
+  <si>
     <t>Special case　（Literally：To have ）</t>
   </si>
   <si>
@@ -1915,6 +2149,258 @@
     <t>持って行く</t>
   </si>
   <si>
+    <t>医者</t>
+  </si>
+  <si>
+    <t>駅</t>
+  </si>
+  <si>
+    <t>お金持ち</t>
+  </si>
+  <si>
+    <t>顔</t>
+  </si>
+  <si>
+    <t>季節</t>
+  </si>
+  <si>
+    <t>牛乳</t>
+  </si>
+  <si>
+    <t>今年</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>地下鉄</t>
+  </si>
+  <si>
+    <t>手袋</t>
+  </si>
+  <si>
+    <t>床屋</t>
+  </si>
+  <si>
+    <t>春</t>
+  </si>
+  <si>
+    <t>暖かい</t>
+  </si>
+  <si>
+    <t>遅い</t>
+  </si>
+  <si>
+    <t>涼しい</t>
+  </si>
+  <si>
+    <t>冷たい</t>
+  </si>
+  <si>
+    <t>簡単な</t>
+  </si>
+  <si>
+    <t>かかる</t>
+  </si>
+  <si>
+    <t>泊まる</t>
+  </si>
+  <si>
+    <t>なる</t>
+  </si>
+  <si>
+    <t>払う</t>
+  </si>
+  <si>
+    <t>決める</t>
+  </si>
+  <si>
+    <t>旅行する</t>
+  </si>
+  <si>
+    <t>練習する</t>
+  </si>
+  <si>
+    <t>歩いて</t>
+  </si>
+  <si>
+    <t>一番</t>
+  </si>
+  <si>
+    <t>～か月</t>
+  </si>
+  <si>
+    <t>このごろ</t>
+  </si>
+  <si>
+    <t>～週間</t>
+  </si>
+  <si>
+    <t>どうやって</t>
+  </si>
+  <si>
+    <t>どちら（どっち）</t>
+  </si>
+  <si>
+    <t>どのぐらい</t>
+  </si>
+  <si>
+    <t>～年</t>
+  </si>
+  <si>
+    <t>早く（速く）</t>
+  </si>
+  <si>
+    <t>お菓子</t>
+  </si>
+  <si>
+    <t>お正月</t>
+  </si>
+  <si>
+    <t>男の子</t>
+  </si>
+  <si>
+    <t>お祭り</t>
+  </si>
+  <si>
+    <t>おもちゃ</t>
+  </si>
+  <si>
+    <t>温泉</t>
+  </si>
+  <si>
+    <t>女の子</t>
+  </si>
+  <si>
+    <t>外国</t>
+  </si>
+  <si>
+    <t>歌手</t>
+  </si>
+  <si>
+    <t>川</t>
+  </si>
+  <si>
+    <t>こちら</t>
+  </si>
+  <si>
+    <t>今学期</t>
+  </si>
+  <si>
+    <t>授業</t>
+  </si>
+  <si>
+    <t>将来</t>
+  </si>
+  <si>
+    <t>神社</t>
+  </si>
+  <si>
+    <t>つり</t>
+  </si>
+  <si>
+    <t>湖</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>夢</t>
+  </si>
+  <si>
+    <t>おなかがすく</t>
+  </si>
+  <si>
+    <t>飼う</t>
+  </si>
+  <si>
+    <t>取る</t>
+  </si>
+  <si>
+    <t>習う</t>
+  </si>
+  <si>
+    <t>登る</t>
+  </si>
+  <si>
+    <t>働く</t>
+  </si>
+  <si>
+    <t>疲れる</t>
+  </si>
+  <si>
+    <t>やめる</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> けんかする</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 紹介する</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 遅刻する</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 留学する</t>
+  </si>
+  <si>
+    <t>作家</t>
+  </si>
+  <si>
+    <t>ジャーナリスト</t>
+  </si>
+  <si>
+    <t>警察官</t>
+  </si>
+  <si>
+    <t>俳優</t>
+  </si>
+  <si>
+    <t>宇宙飛行士</t>
+  </si>
+  <si>
+    <t>野球選手</t>
+  </si>
+  <si>
+    <t>大統領</t>
+  </si>
+  <si>
+    <t>女優</t>
+  </si>
+  <si>
+    <t>看護師</t>
+  </si>
+  <si>
+    <t>消防士</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>出身</t>
+  </si>
+  <si>
+    <t>そして</t>
+  </si>
+  <si>
+    <t>～だけ</t>
+  </si>
+  <si>
+    <t>～点</t>
+  </si>
+  <si>
+    <t>久しぶり</t>
+  </si>
+  <si>
+    <t>まあまあ</t>
+  </si>
+  <si>
+    <t>もっと</t>
+  </si>
+  <si>
     <t>きょうだい</t>
   </si>
   <si>
@@ -2617,7 +3103,199 @@
     <t xml:space="preserve"> もっていく</t>
   </si>
   <si>
-    <t>add in front of son or daughter to turn into grandson, grandaughter, etc</t>
+    <t>いしゃ</t>
+  </si>
+  <si>
+    <t>えき</t>
+  </si>
+  <si>
+    <t>おかねもち</t>
+  </si>
+  <si>
+    <t>かお</t>
+  </si>
+  <si>
+    <t>きせつ</t>
+  </si>
+  <si>
+    <t>ぎゅうにゅう</t>
+  </si>
+  <si>
+    <t>ことし</t>
+  </si>
+  <si>
+    <t>せいかつ</t>
+  </si>
+  <si>
+    <t>せかい</t>
+  </si>
+  <si>
+    <t>ちかてつ</t>
+  </si>
+  <si>
+    <t>てぶくろ</t>
+  </si>
+  <si>
+    <t>とこや</t>
+  </si>
+  <si>
+    <t>はる</t>
+  </si>
+  <si>
+    <t>あたたかい</t>
+  </si>
+  <si>
+    <t>おそい</t>
+  </si>
+  <si>
+    <t>すずしい</t>
+  </si>
+  <si>
+    <t>つめたい</t>
+  </si>
+  <si>
+    <t>かんたんな</t>
+  </si>
+  <si>
+    <t>とまる</t>
+  </si>
+  <si>
+    <t>はらう</t>
+  </si>
+  <si>
+    <t>きめる</t>
+  </si>
+  <si>
+    <t>りょこうする</t>
+  </si>
+  <si>
+    <t>れんしゅうする</t>
+  </si>
+  <si>
+    <t>あるいて</t>
+  </si>
+  <si>
+    <t>いちばん</t>
+  </si>
+  <si>
+    <t>～かげつ</t>
+  </si>
+  <si>
+    <t>～しゅうかん</t>
+  </si>
+  <si>
+    <t>～ねん</t>
+  </si>
+  <si>
+    <t>はやく</t>
+  </si>
+  <si>
+    <t>おしょうがつ</t>
+  </si>
+  <si>
+    <t>おとこのこ</t>
+  </si>
+  <si>
+    <t>おまつり</t>
+  </si>
+  <si>
+    <t>おんせん</t>
+  </si>
+  <si>
+    <t>おんなのこ</t>
+  </si>
+  <si>
+    <t>がいこく</t>
+  </si>
+  <si>
+    <t>かしゅ</t>
+  </si>
+  <si>
+    <t>かわ</t>
+  </si>
+  <si>
+    <t>こんがっき</t>
+  </si>
+  <si>
+    <t>じゅぎょう</t>
+  </si>
+  <si>
+    <t>しょうらい</t>
+  </si>
+  <si>
+    <t>じんじゃ</t>
+  </si>
+  <si>
+    <t>みずうみ</t>
+  </si>
+  <si>
+    <t>やま</t>
+  </si>
+  <si>
+    <t>ゆめ</t>
+  </si>
+  <si>
+    <t>ならう</t>
+  </si>
+  <si>
+    <t>のぼる</t>
+  </si>
+  <si>
+    <t>はたらく</t>
+  </si>
+  <si>
+    <t>つかれる</t>
+  </si>
+  <si>
+    <t>しょうかいする</t>
+  </si>
+  <si>
+    <t>ちこくする</t>
+  </si>
+  <si>
+    <t>りゅうがくする</t>
+  </si>
+  <si>
+    <t>さっか</t>
+  </si>
+  <si>
+    <t>けいさつかん</t>
+  </si>
+  <si>
+    <t>はいゆう</t>
+  </si>
+  <si>
+    <t>うちゅうひこうし</t>
+  </si>
+  <si>
+    <t>やきゅうせんしゅ</t>
+  </si>
+  <si>
+    <t>だいとうりょう</t>
+  </si>
+  <si>
+    <t>じょゆう</t>
+  </si>
+  <si>
+    <t>かんごし</t>
+  </si>
+  <si>
+    <t>しょうぼうし</t>
+  </si>
+  <si>
+    <t>あと</t>
+  </si>
+  <si>
+    <t>しゅっしん</t>
+  </si>
+  <si>
+    <t>～てん</t>
+  </si>
+  <si>
+    <t>ひさしぶり</t>
+  </si>
+  <si>
+    <t>走ります|走らない|走って</t>
   </si>
   <si>
     <t>+ a negative</t>
@@ -2629,694 +3307,604 @@
     <t>いくらですか</t>
   </si>
   <si>
-    <t>新しくない
-新しかった
-新しくなかった</t>
-  </si>
-  <si>
-    <t>暑くない
-暑かった
-暑くなかった</t>
-  </si>
-  <si>
-    <t>熱くない
-熱かった
-熱くなかった</t>
-  </si>
-  <si>
-    <t>忙しくない
-忙しかった
-忙しくなかった</t>
-  </si>
-  <si>
-    <t>かっこよくない
-かっこよかった
-かっこよくなかった</t>
-  </si>
-  <si>
-    <t>怖くない
-怖かった
-怖くなかった</t>
-  </si>
-  <si>
-    <t>寒くない
-寒かった
-寒くなかった</t>
+    <t>新しくない |新しかった |新しくなかった</t>
+  </si>
+  <si>
+    <t>暑くない |暑かった |暑くなかった</t>
+  </si>
+  <si>
+    <t>熱くない |熱かった |熱くなかった</t>
+  </si>
+  <si>
+    <t>忙しくない |忙しかった |忙しくなかった</t>
+  </si>
+  <si>
+    <t>かっこよくない |かっこよかった |かっこよくなかった</t>
+  </si>
+  <si>
+    <t>怖くない |怖かった |怖くなかった</t>
+  </si>
+  <si>
+    <t>寒くない |寒かった |寒くなかった</t>
   </si>
   <si>
     <t>つまらなかった</t>
   </si>
   <si>
-    <t>むぞかしくない
-むぞかしかった
-むぞかしくなかった</t>
-  </si>
-  <si>
-    <t>やさしくない
-やさしかった
-やさしくなかった</t>
-  </si>
-  <si>
-    <t>嫌いじゃない
-嫌いだった
-嫌いじゃなかった</t>
-  </si>
-  <si>
-    <t>静かじゃない
-静かだった
-静かじゃなかった</t>
-  </si>
-  <si>
-    <t>好きじゃない
-好きだった
-好きじゃなかった</t>
-  </si>
-  <si>
-    <t>聞きます
-聞かない
-聞いて</t>
-  </si>
-  <si>
-    <t>乗ります
-乗らない
-乗いて</t>
-  </si>
-  <si>
-    <t>やります
-やらない
-よいて</t>
-  </si>
-  <si>
-    <t>出かけます
-出かけない
-出かけて</t>
+    <t>むぞかしくない |むぞかしかった |むぞかしくなかった</t>
+  </si>
+  <si>
+    <t>やさしくない |やさしかった |やさしくなかった</t>
+  </si>
+  <si>
+    <t>嫌いじゃない |嫌いだった |嫌いじゃなかった</t>
+  </si>
+  <si>
+    <t>静かじゃない |静かだった |静かじゃなかった</t>
+  </si>
+  <si>
+    <t>好きじゃない |好きだった |好きじゃなかった</t>
+  </si>
+  <si>
+    <t>聞きます |聞かない |聞いて</t>
+  </si>
+  <si>
+    <t>乗ります |乗らない |乗いて</t>
+  </si>
+  <si>
+    <t>やります |やらない |よいて</t>
+  </si>
+  <si>
+    <t>出かけます |出かけない |出かけて</t>
   </si>
   <si>
     <t>（XとYの間です</t>
   </si>
   <si>
-    <t>大変じゃない
-大変だった
-大変じゃなかった</t>
-  </si>
-  <si>
-    <t>遊びます
-遊ばない
-遊んで</t>
-  </si>
-  <si>
-    <t>急ぎます
-急がない
-急いで</t>
-  </si>
-  <si>
-    <t>お風呂に入ります
-お風呂に入らない
-お風呂に入って</t>
-  </si>
-  <si>
-    <t>返します
-返しない
-返して</t>
-  </si>
-  <si>
-    <t>消します
-消しない
-消して</t>
-  </si>
-  <si>
-    <t>死にます
-死なない
-死んで</t>
-  </si>
-  <si>
-    <t>座ります
-座らない
-座りって</t>
-  </si>
-  <si>
-    <t>立ちます
-立たない
-立って</t>
-  </si>
-  <si>
-    <t>吸います
-吸わない
-吸って</t>
-  </si>
-  <si>
-    <t>使います
-使わない
-使って</t>
-  </si>
-  <si>
-    <t>手伝います
-手伝わない
-手伝って</t>
-  </si>
-  <si>
-    <t>入ります
-入らない
-入って</t>
-  </si>
-  <si>
-    <t>持ちます
-持たない
-持って</t>
-  </si>
-  <si>
-    <t>休みます
-休まない
-休んで</t>
-  </si>
-  <si>
-    <t>開けます
-開けない
-開けて</t>
-  </si>
-  <si>
-    <t>教えます
-教えない
-教えて</t>
-  </si>
-  <si>
-    <t>降ります
-降りない
-降りて</t>
-  </si>
-  <si>
-    <t>借ります
-借りない
-借りて</t>
-  </si>
-  <si>
-    <t>閉めます
-閉めない
-閉めて</t>
-  </si>
-  <si>
-    <t>シャワーを浴びます
-シャワーを浴びない
-シャワーを浴びて</t>
-  </si>
-  <si>
-    <t>つけます
-つけない
-つけて</t>
-  </si>
-  <si>
-    <t>電話をかけます
-電話を掛けない
-電話をかけて</t>
-  </si>
-  <si>
-    <t>忘れます
-忘れない
-忘れて</t>
-  </si>
-  <si>
-    <t>連れてきます
-連れてこない
-連れてきて</t>
-  </si>
-  <si>
-    <t>持ってきます
-持ってこない
-持ってきて</t>
-  </si>
-  <si>
-    <t>安くない
-安かった
-安くなかった</t>
-  </si>
-  <si>
-    <t>歌います
-歌わない
-歌って</t>
-  </si>
-  <si>
-    <t>暇じゃない
-暇だった
-暇じゃなかった</t>
-  </si>
-  <si>
-    <t>賑やかじゃない
-賑やかだった
-賑やかじゃなかった</t>
-  </si>
-  <si>
-    <t>頭がよくない
-頭がよかった
-頭がよくなかった</t>
-  </si>
-  <si>
-    <t>背が高ない
-背が高かった
-背が高くなかった</t>
-  </si>
-  <si>
-    <t>背が低ない
-背が低かった
-背が低くなかった</t>
-  </si>
-  <si>
-    <t>長くない
-長かった
-長くなかった</t>
-  </si>
-  <si>
-    <t>早くない
-早かった
-早くなかった</t>
-  </si>
-  <si>
-    <t>短くない
-短かった
-短なかった</t>
-  </si>
-  <si>
-    <t>親切じゃない
-親切なだった
-親切じゃなかった</t>
-  </si>
-  <si>
-    <t>便利じゃない
-便利なだった
-便利じゃなかった</t>
-  </si>
-  <si>
-    <t>被ります
-被らない
-被って</t>
-  </si>
-  <si>
-    <t>知ります
-知らない
-知って</t>
-  </si>
-  <si>
-    <t>はきます
-はかない
-はいて</t>
-  </si>
-  <si>
-    <t>太ります
-太らない
-太って</t>
-  </si>
-  <si>
-    <t>かけます
-かけない
-かけて</t>
-  </si>
-  <si>
-    <t>着ます
-着ない
-着て</t>
-  </si>
-  <si>
-    <t>勤めます
-勤めない
-勤めて</t>
-  </si>
-  <si>
-    <t>やせます
-やせない
-やせて</t>
-  </si>
-  <si>
-    <t>結婚します
-結婚さない
-結婚して</t>
-  </si>
-  <si>
-    <t>上手じゃない
-上手だった
-上手じゃなかった</t>
-  </si>
-  <si>
-    <t>不器用じゃない
-不器用だった
-不器用じゃなかった</t>
-  </si>
-  <si>
-    <t>有名じゃない
-有名だった
-有名じゃなかった</t>
-  </si>
-  <si>
-    <t>降ります
-降らない
-降って</t>
-  </si>
-  <si>
-    <t>洗います
-洗わない
-洗って</t>
-  </si>
-  <si>
-    <t>言います
-言わない
-言って</t>
-  </si>
-  <si>
-    <t>要ります
-要らない
-要って</t>
-  </si>
-  <si>
-    <t>遅れます
-遅れない
-遅れて</t>
-  </si>
-  <si>
-    <t>思います
-思わない
-思って</t>
-  </si>
-  <si>
-    <t>切ります
-切らない
-切って</t>
-  </si>
-  <si>
-    <t>作ります
-作らない
-作って</t>
-  </si>
-  <si>
-    <t>見つめます
-見つめない
-見つめて</t>
-  </si>
-  <si>
-    <t>捨てます
-捨てない
-捨てて</t>
-  </si>
-  <si>
-    <t>始めます
-始めない
-始めて</t>
-  </si>
-  <si>
-    <t>運転します
-運転しない
-運転して</t>
-  </si>
-  <si>
-    <t>洗濯します
-洗濯しない
-洗濯して</t>
-  </si>
-  <si>
-    <t>掃除します
-掃除しない
-掃除して</t>
-  </si>
-  <si>
-    <t>電話します
-電話しない
-電話して</t>
-  </si>
-  <si>
-    <t>料理します
-料理しない
-料理して</t>
-  </si>
-  <si>
-    <t>青くない
-青かった
-青くなかった</t>
-  </si>
-  <si>
-    <t>赤くない
-赤かった
-赤くなかった</t>
-  </si>
-  <si>
-    <t>黒くない
-黒かった
-黒くなかった</t>
-  </si>
-  <si>
-    <t>寂しくない
-寂しかった
-寂しくなかった</t>
-  </si>
-  <si>
-    <t>白くない
-白かった
-白くなかった</t>
-  </si>
-  <si>
-    <t>若くない
-若かった
-若くなかった</t>
-  </si>
-  <si>
-    <t>意地悪じゃない
-意地悪だった
-意地悪じゃなかった</t>
-  </si>
-  <si>
-    <t>踊ります
-踊らない
-踊って</t>
-  </si>
-  <si>
-    <t>終わります
-終わらない
-終わって</t>
-  </si>
-  <si>
-    <t>流行ります
-流行らない
-流行って</t>
-  </si>
-  <si>
-    <t>始まります
-始まらない
-始まって</t>
-  </si>
-  <si>
-    <t>弾きます
-弾かない
-弾いて</t>
-  </si>
-  <si>
-    <t>もらいます
-もらわない
-もらって</t>
-  </si>
-  <si>
-    <t>覚えます
-覚えない
-覚えて</t>
-  </si>
-  <si>
-    <t>出ます
-出ない
-出て</t>
-  </si>
-  <si>
-    <t>運動します
-運動しない
-運動して</t>
-  </si>
-  <si>
-    <t>散歩します
-散歩しない
-散歩して</t>
-  </si>
-  <si>
-    <t>Also:
-朝御飯
-あさごはん</t>
-  </si>
-  <si>
-    <t>探検します
-探検しない
-探検して</t>
-  </si>
-  <si>
-    <t>持って行きます
-持って行かない
-持って行って</t>
-  </si>
-  <si>
-    <t>次のぺーじをよんでください</t>
-  </si>
-  <si>
-    <t>今日は大変でしたね</t>
-  </si>
-  <si>
-    <t>後でリキさんは図書館に行く。（あとでりきさんはとしょかんにいく。）</t>
-  </si>
-  <si>
-    <t>彼は遅く起きたため、朝食を食べなかった。（かれはおそくおきたため、ちょうしょくをたべなかった。）</t>
-  </si>
-  <si>
-    <t>私たちはすぐに出発する予定です. ( わたしたちはすぐにしゅっぱつするよていです.)</t>
-  </si>
-  <si>
-    <t>映画はどうでしたか</t>
-  </si>
-  <si>
-    <t>どうして来なかった</t>
-  </si>
-  <si>
-    <t>リーさんは切手を三枚買いました</t>
-  </si>
-  <si>
-    <t>たくさん暇時があります</t>
-  </si>
-  <si>
-    <t>めがねをかける</t>
-  </si>
-  <si>
-    <t>別に何もしていません</t>
-  </si>
-  <si>
-    <t>もちろん私はあなたを信頼しています。 (もちろんわたしはあなたをしんらいしています。)</t>
-  </si>
-  <si>
-    <t>もしお時間があれば、よかったら私たちと一緒に映画を見に行きませんか？ (もしおじかんがあれば、よかったらわたしたちといっしょにえいがをみにいきませんか？)</t>
-  </si>
-  <si>
-    <t>私たちは今週末の旅行の計画を立てています。(わたしたちはこんしゅうまつのりょこうのけいかくをたてています.)</t>
-  </si>
-  <si>
-    <t>明日の天気予報によると、おそらく雨が降るでしょう。(あしたのてんきよほうによると、おそらくあめがふるでしょう。)</t>
-  </si>
-  <si>
-    <t>大学入学おめでとう</t>
-  </si>
-  <si>
-    <t>日本語が上手になったのは、日本人の友達がたくさんいたおかげでです。</t>
-  </si>
-  <si>
-    <t>彼女はとても上手なバイオリニストだ。 (かのじょはとてもじょうずなばいおりにすとだ。)</t>
-  </si>
-  <si>
-    <t>彼はとても不器用な男性だ。 (かれはとてもぶきようなだんせいだ。)</t>
-  </si>
-  <si>
-    <t>あの映画スターはとても有名な女優です。 (あのえいがすたーはとてもゆうめいなじょゆうです。)</t>
-  </si>
-  <si>
-    <t>今日は雨が降る。 (きょうはあめがふる。)</t>
-  </si>
-  <si>
-    <t>昨日は車を洗った。 (きのうはくるまをあらった。)</t>
-  </si>
-  <si>
-    <t>私は彼女に愛を言った。 (わたしはかのじょにあいをいった。)</t>
-  </si>
-  <si>
-    <t>私たちはお金が要る。 (わたしたちはおかねがいる。)</t>
-  </si>
-  <si>
-    <t>私はいつも遅れる。 (わたしはいつもおくれる。)</t>
-  </si>
-  <si>
-    <t>彼は私を愛していると思う。 (かれはわたしをあいしているとおもう。)</t>
-  </si>
-  <si>
-    <t>私は野菜を切る。 (わたしはやさいをきる。)</t>
-  </si>
-  <si>
-    <t>私は毎日昼ごはんを作る。 (わたしはまいにちひるごはんをつくる。)</t>
-  </si>
-  <si>
-    <t>彼は私をじろじろ見つめた。 (かれはわたしをじろじろみつめた。)</t>
-  </si>
-  <si>
-    <t>古い紙は捨ててください。 (ふるいかみはすててください。)</t>
-  </si>
-  <si>
-    <t>明日から新しい生活を始めます。 (あしたからあたらしいせいかつをはじめます。)</t>
-  </si>
-  <si>
-    <t>彼女は毎日車を運転します。 (かのじょはまいにちくるまをうんてんします。)</t>
-  </si>
-  <si>
-    <t>母は週に二回洗濯をします。 (はははしゅうににかいせんたくをします。)</t>
-  </si>
-  <si>
-    <t>彼は部屋を掃除しました。 (かれはへやをそうじしました。)</t>
-  </si>
-  <si>
-    <t>私は友達に電話をかけました。 (わたしはともだちにでんわをかけました。)</t>
-  </si>
-  <si>
-    <t>母は毎日美味しい料理を作ってくれます。 (はははまいにちおいしいりょうりをつくってくれます。)</t>
-  </si>
-  <si>
-    <t>私はいつも朝食を食べます。(わたしはいつもあさごはんをたべます。)</t>
-  </si>
-  <si>
-    <t>あなたが来れないのは残念です。(あなたがこれないのはざんねんです。)</t>
-  </si>
-  <si>
-    <t>映画について、私はとてもよくできていたと思います. (えいがについて、わたしはとてもよくできていたとおもいます.)</t>
-  </si>
-  <si>
-    <t>まだ飲まないでください。</t>
-  </si>
-  <si>
-    <t>昨日、試験に落ちてしまいました。本当に残念です。(きのう、しけんにおちてしまいました。ほんとうにざんねんです)</t>
-  </si>
-  <si>
-    <t>海は青いです。 (うみはあおいです。)</t>
-  </si>
-  <si>
-    <t>りんごは赤いです。 (りんごはあかいです。)</t>
-  </si>
-  <si>
-    <t>烏は黒いです。 (からすはくろいです。)</t>
-  </si>
-  <si>
-    <t>寂しい夜には、音楽を聴くといいですよ。(さびしいよるには、おんがくをきくといいですよ。)</t>
-  </si>
-  <si>
-    <t>雪の日は、外はすべて白いです。(ゆきのひは、そとはすべてしろいです。)</t>
-  </si>
-  <si>
-    <t>私はまだ若いです。(わたしはまだわかいです。)</t>
-  </si>
-  <si>
-    <t>彼女は意地悪な言葉を言った。(かのじょはいじわるなことばをいった。)</t>
-  </si>
-  <si>
-    <t>彼女は踊るのが好きです。(かのじょはおどるのがすきです。)</t>
-  </si>
-  <si>
-    <t>映画はもう終わりました。(えいがはもうおわりました。)</t>
-  </si>
-  <si>
-    <t>そのスタイルは最近流行っています。(そのスタイルはさいきんはやっています。)</t>
-  </si>
-  <si>
-    <t>授業は9時に始まります。(じゅぎょうは9じにはじまります。)</t>
-  </si>
-  <si>
-    <t>彼はギターを弾くのが上手です。(かれはぎたーをひくのがじょうずです。)</t>
-  </si>
-  <si>
-    <t>彼女は誕生日にプレゼントをもらった。(かのじょはたんじょうびにプレゼントをもらった。)</t>
-  </si>
-  <si>
-    <t>私は英単語を覚えるのが苦手です。(わたしはえいたんごをおぼえるのがにがてです。)</t>
-  </si>
-  <si>
-    <t>私は今日は出かけません。(わたしはきょうはでかけません。)</t>
-  </si>
-  <si>
-    <t>彼は森を探検する予定です（かれはもりをたんけんするよていです）</t>
-  </si>
-  <si>
-    <t>明日、傘を持って行くつもりです（あした、かさをもっていくつもりです）</t>
+    <t>大変じゃない |大変だった |大変じゃなかった</t>
+  </si>
+  <si>
+    <t>遊びます |遊ばない |遊んで</t>
+  </si>
+  <si>
+    <t>急ぎます |急がない |急いで</t>
+  </si>
+  <si>
+    <t>お風呂に入ります |お風呂に入らない |お風呂に入って</t>
+  </si>
+  <si>
+    <t>返します |返しない |返して</t>
+  </si>
+  <si>
+    <t>消します |消しない |消して</t>
+  </si>
+  <si>
+    <t>死にます |死なない |死んで</t>
+  </si>
+  <si>
+    <t>座ります |座らない |座りって</t>
+  </si>
+  <si>
+    <t>立ちます |立たない |立って</t>
+  </si>
+  <si>
+    <t>吸います |吸わない |吸って</t>
+  </si>
+  <si>
+    <t>使います |使わない |使って</t>
+  </si>
+  <si>
+    <t>手伝います |手伝わない |手伝って</t>
+  </si>
+  <si>
+    <t>入ります |入らない |入って</t>
+  </si>
+  <si>
+    <t>持ちます |持たない |持って</t>
+  </si>
+  <si>
+    <t>休みます |休まない |休んで</t>
+  </si>
+  <si>
+    <t>開けます |開けない |開けて</t>
+  </si>
+  <si>
+    <t>教えます |教えない |教えて</t>
+  </si>
+  <si>
+    <t>降ります |降りない |降りて</t>
+  </si>
+  <si>
+    <t>借ります |借りない |借りて</t>
+  </si>
+  <si>
+    <t>閉めます |閉めない |閉めて</t>
+  </si>
+  <si>
+    <t>シャワーを浴びます |シャワーを浴びない |シャワーを浴びて</t>
+  </si>
+  <si>
+    <t>つけます |つけない |つけて</t>
+  </si>
+  <si>
+    <t>電話をかけます |電話を掛けない |電話をかけて</t>
+  </si>
+  <si>
+    <t>忘れます |忘れない |忘れて</t>
+  </si>
+  <si>
+    <t>連れてきます |連れてこない |連れてきて</t>
+  </si>
+  <si>
+    <t>持ってきます |持ってこない |持ってきて</t>
+  </si>
+  <si>
+    <t>安くない |安かった |安くなかった</t>
+  </si>
+  <si>
+    <t>歌います |歌わない |歌って</t>
+  </si>
+  <si>
+    <t>暇じゃない |暇だった |暇じゃなかった</t>
+  </si>
+  <si>
+    <t>賑やかじゃない |賑やかだった |賑やかじゃなかった</t>
+  </si>
+  <si>
+    <t>頭がよくない |頭がよかった |頭がよくなかった</t>
+  </si>
+  <si>
+    <t>背が高ない |背が高かった |背が高くなかった</t>
+  </si>
+  <si>
+    <t>背が低ない |背が低かった |背が低くなかった</t>
+  </si>
+  <si>
+    <t>長くない |長かった |長くなかった</t>
+  </si>
+  <si>
+    <t>早くない |早かった |早くなかった</t>
+  </si>
+  <si>
+    <t>短くない |短かった |短なかった</t>
+  </si>
+  <si>
+    <t>親切じゃない |親切なだった |親切じゃなかった</t>
+  </si>
+  <si>
+    <t>便利じゃない |便利なだった |便利じゃなかった</t>
+  </si>
+  <si>
+    <t>被ります |被らない |被って</t>
+  </si>
+  <si>
+    <t>知ります |知らない |知って</t>
+  </si>
+  <si>
+    <t>はきます |はかない |はいて</t>
+  </si>
+  <si>
+    <t>太ります |太らない |太って</t>
+  </si>
+  <si>
+    <t>かけます |かけない |かけて</t>
+  </si>
+  <si>
+    <t>着ます |着ない |着て</t>
+  </si>
+  <si>
+    <t>勤めます |勤めない |勤めて</t>
+  </si>
+  <si>
+    <t>やせます |やせない |やせて</t>
+  </si>
+  <si>
+    <t>結婚します |結婚さない |結婚して</t>
+  </si>
+  <si>
+    <t>上手じゃない |上手だった |上手じゃなかった</t>
+  </si>
+  <si>
+    <t>不器用じゃない |不器用だった |不器用じゃなかった</t>
+  </si>
+  <si>
+    <t>有名じゃない |有名だった |有名じゃなかった</t>
+  </si>
+  <si>
+    <t>降ります |降らない |降って</t>
+  </si>
+  <si>
+    <t>洗います |洗わない |洗って</t>
+  </si>
+  <si>
+    <t>言います |言わない |言って</t>
+  </si>
+  <si>
+    <t>要ります |要らない |要って</t>
+  </si>
+  <si>
+    <t>遅れます |遅れない |遅れて</t>
+  </si>
+  <si>
+    <t>思います |思わない |思って</t>
+  </si>
+  <si>
+    <t>切ります |切らない |切って</t>
+  </si>
+  <si>
+    <t>作ります |作らない |作って</t>
+  </si>
+  <si>
+    <t>見つめます |見つめない |見つめて</t>
+  </si>
+  <si>
+    <t>捨てます |捨てない |捨てて</t>
+  </si>
+  <si>
+    <t>始めます |始めない |始めて</t>
+  </si>
+  <si>
+    <t>運転します |運転しない |運転して</t>
+  </si>
+  <si>
+    <t>洗濯します |洗濯しない |洗濯して</t>
+  </si>
+  <si>
+    <t>掃除します |掃除しない |掃除して</t>
+  </si>
+  <si>
+    <t>電話します |電話しない |電話して</t>
+  </si>
+  <si>
+    <t>料理します |料理しない |料理して</t>
+  </si>
+  <si>
+    <t>青くない |青かった |青くなかった</t>
+  </si>
+  <si>
+    <t>赤くない |赤かった |赤くなかった</t>
+  </si>
+  <si>
+    <t>黒くない |黒かった |黒くなかった</t>
+  </si>
+  <si>
+    <t>寂しくない |寂しかった |寂しくなかった</t>
+  </si>
+  <si>
+    <t>白くない |白かった |白くなかった</t>
+  </si>
+  <si>
+    <t>若くない |若かった |若くなかった</t>
+  </si>
+  <si>
+    <t>意地悪じゃない |意地悪だった |意地悪じゃなかった</t>
+  </si>
+  <si>
+    <t>踊ります |踊らない |踊って</t>
+  </si>
+  <si>
+    <t>終わります |終わらない |終わって</t>
+  </si>
+  <si>
+    <t>流行ります |流行らない |流行って</t>
+  </si>
+  <si>
+    <t>始まります |始まらない |始まって</t>
+  </si>
+  <si>
+    <t>弾きます |弾かない |弾いて</t>
+  </si>
+  <si>
+    <t>もらいます |もらわない |もらって</t>
+  </si>
+  <si>
+    <t>覚えます |覚えない |覚えて</t>
+  </si>
+  <si>
+    <t>出ます |出ない |出て</t>
+  </si>
+  <si>
+    <t>運動します |運動しない |運動して</t>
+  </si>
+  <si>
+    <t>散歩します |散歩しない |散歩して</t>
+  </si>
+  <si>
+    <t>Also: |朝御飯 |あさごはん</t>
+  </si>
+  <si>
+    <t>探検します |探検しない |探検して</t>
+  </si>
+  <si>
+    <t>持って行きます |持って行かない |持って行って</t>
+  </si>
+  <si>
+    <t>暖かくない｜暖かかった｜暖かくなかった</t>
+  </si>
+  <si>
+    <t>遅くない｜遅かった｜遅くなかった</t>
+  </si>
+  <si>
+    <t>涼しくない｜涼しかった｜涼しくなかった</t>
+  </si>
+  <si>
+    <t>冷たくない｜冷たかった｜冷たくなかった</t>
+  </si>
+  <si>
+    <t>おかし</t>
+  </si>
+  <si>
+    <t>起きます|起きない|起きて</t>
+  </si>
+  <si>
+    <t>撮ります|取りません|取って</t>
+  </si>
+  <si>
+    <t>習います|習わない|習って</t>
+  </si>
+  <si>
+    <t>登ります|登らない|登って</t>
+  </si>
+  <si>
+    <t>働きます|働かない|働いて</t>
+  </si>
+  <si>
+    <t>疲れます|疲れない|疲れて</t>
+  </si>
+  <si>
+    <t>やめます|やめません|やめて</t>
+  </si>
+  <si>
+    <t>けんかする</t>
+  </si>
+  <si>
+    <t>病気になったので、すぐに医者に行きました。|びょうきになったので、すぐにいしゃにいきました。</t>
+  </si>
+  <si>
+    <t>駅から歩いて10分ぐらいのところに、私の家があります。|えきからあるいて10ぷんぐらいのところに、わたしのいえがあります。</t>
+  </si>
+  <si>
+    <t>お金持ちの人たちは、いい車を持っていることが多いです。|おかねもちのひとたちは、いいくるまをもっていることがおおいです。</t>
+  </si>
+  <si>
+    <t>彼女の顔は、とても美しいです。|かのじょのかおは、とてもうつくしいです。</t>
+  </si>
+  <si>
+    <t>四季がある国では、それぞれの季節に楽しめることがたくさんあります。|しきがあるくにでは、それぞれのきせつにたのしめることがたくさんあります。</t>
+  </si>
+  <si>
+    <t>毎朝、牛乳を飲んでいます。|まいあさ、ぎゅうにゅうをのんでいます。</t>
+  </si>
+  <si>
+    <t>今年は、天気がよくて、良い年でした。|ことしは、てんきがよくて、いいとしでした。</t>
+  </si>
+  <si>
+    <t>日本の生活には、いろいろな面で驚かされることがあります。|にほんのせいかつには、いろいろなめんでおどろかされることがあります。</t>
+  </si>
+  <si>
+    <t>世界の国々を旅行したいです。|せかいのくにぐにをりょこうしたいです。</t>
+  </si>
+  <si>
+    <t>毎日、地下鉄で通勤しています。|まいにち、ちかてつでつうきんしています。</t>
+  </si>
+  <si>
+    <t>冬になると、手袋が必要になります。|ふゆになると、てぶくろがひつようになります。</t>
+  </si>
+  <si>
+    <t>昔は、男性は床屋で髪を切っていました。|むかしは、だんせいはとこやでかみをきっていました。</t>
+  </si>
+  <si>
+    <t>春になると、桜が咲きます。|はるになると、さくら</t>
+  </si>
+  <si>
+    <t>今日はとても暖かいです。|きょうはとてもあたたかいです。</t>
+  </si>
+  <si>
+    <t>彼はいつも遅いです。|かれはいつもおそいです。</t>
+  </si>
+  <si>
+    <t>涼しい風が吹いている。|すずしいかぜがふいている。</t>
+  </si>
+  <si>
+    <t>この水は冷たいです。|このみずはつめたいです。</t>
+  </si>
+  <si>
+    <t>この問題は簡単だ。|このもんだいはかんたんだ。</t>
+  </si>
+  <si>
+    <t>仕事が終わるまで時間がかかります。|しごとがおわるまでじかんがかかります。</t>
+  </si>
+  <si>
+    <t>明日はホテルに泊まります。|あしたはホテルにとまります。</t>
+  </si>
+  <si>
+    <t>私は医者になりたいです。|わたしはいしゃになりたいです。</t>
+  </si>
+  <si>
+    <t>この車は高くて、たくさんお金を払いました。|このくるまはたかくて、たくさんおかねをはらいました。</t>
+  </si>
+  <si>
+    <t>何を食べるかまだ決めていません。|なにをたべるかまだきめていません。</t>
+  </si>
+  <si>
+    <t>私たちは夏に海外旅行に行きます。|わたしたちはなつにかいがいりょこうにいきます。</t>
+  </si>
+  <si>
+    <t>毎日ピアノを練習しています。|まいにちピアノをれんしゅうしています。</t>
+  </si>
+  <si>
+    <t>私は毎日歩いて学校に行きます。|わたしはまいにちあるいてがっこうにいきます。</t>
+  </si>
+  <si>
+    <t>彼はいつも一番にゴールに到着します。|かれはいつもいちばんにゴールにとうちゃくします。</t>
+  </si>
+  <si>
+    <t>私は来月で日本に来てから1年6か月になります。|わたしはらいげつでにほんにきてから1ねん6かげつになります。</t>
+  </si>
+  <si>
+    <t>このごろ、私は忙しくてあまり友達と遊びません。|このごろ、わたしはいそがしくてあまりともだちとあそびません。</t>
+  </si>
+  <si>
+    <t>私たちは来週から3週間ほどヨーロッパを旅行する予定です。|わたしたちはらいしゅうから3しゅうかんほどヨーロッパをりょこうするよていです。</t>
+  </si>
+  <si>
+    <t>あなたはどうやってその問題を解決しましたか？|あなたはどうやってそのもんだいをかいけつしましたか？</t>
+  </si>
+  <si>
+    <t>どちらがあなたの好きな果物ですか？|どっちがあなたのすきなくだものですか？</t>
+  </si>
+  <si>
+    <t>この料理の材料はどのぐらい必要ですか？|このりょうりのざいりょうはどのぐらいひつようですか？</t>
+  </si>
+  <si>
+    <t>私は来年でアメリカに来てから10年になります。|わたしはらいねんでアメリカにきてから10ねんになります。</t>
+  </si>
+  <si>
+    <t>早く家に帰って、一緒に晩御飯を食べましょう。|はやくいえにかえって、いっしょにばんごはんをたべましょう。</t>
+  </si>
+  <si>
+    <t>お正月には家族でお餅を食べます。 | おしょうがつにはかぞくでおもちをたべます。</t>
+  </si>
+  <si>
+    <t>その男の子は元気そうです。 | そのおとこのこはげんきそうです。</t>
+  </si>
+  <si>
+    <t>お祭りの屋台でたこ焼きを食べました。 | おまつりのやたいでたこやきをたべました。</t>
+  </si>
+  <si>
+    <t>子供のおもちゃは色々あります。 | こどものおもちゃはいろいろあります。</t>
+  </si>
+  <si>
+    <t>日本にはたくさんの温泉があります。 | にほんにはたくさんのおんせんがあります。</t>
+  </si>
+  <si>
+    <t>あの女の子はとてもかわいいですね。 | あのおんなのこはとてもかわいいですね。</t>
+  </si>
+  <si>
+    <t>外国に行くのは楽しみです。 | がいこくにいくのはたのしみです。</t>
+  </si>
+  <si>
+    <t>彼女は有名な歌手です。 | かのじょはゆうめいなかしゅです。</t>
+  </si>
+  <si>
+    <t>その川はとても清流です。 | そのかわはとてもせいりゅうです。</t>
+  </si>
+  <si>
+    <t>こちらの方がよろしいでしょう。 | こちらのほうがよろしいでしょう。</t>
+  </si>
+  <si>
+    <t>今学期の授業は難しいです。 | こんがっきのじゅぎょうはむずかしいです。</t>
+  </si>
+  <si>
+    <t>授業中は集中しなければなりません。 | じゅぎょうちゅうはしゅうちゅうしなければなりません。</t>
+  </si>
+  <si>
+    <t>将来の夢は何ですか。 | しょうらいのゆめはなんですか。</t>
+  </si>
+  <si>
+    <t>初詣で神社に行きます。 | はつもうででじんじゃにいきます。</t>
+  </si>
+  <si>
+    <t>琵琶湖は日本で一番大きい湖です。|びわこはにほんでいちばんおおきいみずうみです。</t>
+  </si>
+  <si>
+    <t>富士山は日本で一番高い山です。|ふじさんはにほんでいちばんたかいやまです。</t>
+  </si>
+  <si>
+    <t>私は昨夜すごい夢を見ました。|わたしはさくやすごいゆめをみました。</t>
+  </si>
+  <si>
+    <t>毎朝６時に起きることが難しいです。|まいあさろくじにおきることがむずかしいです。</t>
+  </si>
+  <si>
+    <t>今日は遅くまで働いたので、お腹が空いています。|きょうはおそくまではたらいたので、おなかがすいています。</t>
+  </si>
+  <si>
+    <t>私たちは犬を飼っています。|わたしたちはいぬをかっています。</t>
+  </si>
+  <si>
+    <t>この携帯電話で写真を撮ることができます。|このけいたいでんわでしゃしんをとることができます。</t>
+  </si>
+  <si>
+    <t>私は日本語を習っています。|わたしはにほんごをならっています。</t>
+  </si>
+  <si>
+    <t>私たちは山に登るつもりです。|わたしたちはやまにのぼるつもりです。</t>
+  </si>
+  <si>
+    <t>私は大学で働いています。|わたしはだいがくではたらいています。</t>
+  </si>
+  <si>
+    <t>今日はとても疲れた。|きょうはとてもつかれた。</t>
+  </si>
+  <si>
+    <t>私は喫煙をやめました。|わたしはきつえんをやめました。</t>
+  </si>
+  <si>
+    <t>けんかします|けんかしない|けんかして</t>
+  </si>
+  <si>
+    <t>しょうかいします|しょうかいしない|しょうかいして</t>
+  </si>
+  <si>
+    <t>ちこくします|ちこくしない|ちこくして</t>
+  </si>
+  <si>
+    <t>りゅうがくします|りゅうがくしない|りゅうがくして</t>
+  </si>
+  <si>
+    <t>この小説を書いた作家は誰ですか？|このしょうせつをかいたさっかはだれですか？</t>
+  </si>
+  <si>
+    <t>彼女はジャーナリストで、新聞社で働いています。|かのじょはじゃあなりすとで、しんぶんしゃではたらいています。</t>
+  </si>
+  <si>
+    <t>警察官の制服を着た男性が、道路の横断歩道で交通整理をしていた。|けいさつかんのせいふくをきただんせいが、どうろのおうだんほどうでこうつうせいりをしていた。</t>
+  </si>
+  <si>
+    <t>彼は素晴らしい俳優で、多くの映画で主役を演じました。|かれはすばらしいはいゆうで、おおくのえいがでしゅやくをえんじました。</t>
+  </si>
+  <si>
+    <t>彼女は将来宇宙飛行士になる夢を持っています。|かのじょはしょうらいうちゅうひこうしになるゆめをもっています。</t>
+  </si>
+  <si>
+    <t>彼は野球選手として、多くのチームでプレーしてきました。|かれはやきゅうせんしゅとして、おおくのちーむでぷれーしてきました。</t>
+  </si>
+  <si>
+    <t>新しい大統領は、多くの改革を約束しました。|あたらしいだいとうりょうは、おおくのかいかくをやくそくしました。</t>
+  </si>
+  <si>
+    <t>彼女は演技がうまい女優で、多くの映画で主役を演じました。|かのじょはえんぎがうまいじょゆうで、おおくのえいがでしゅやくをえんじました。</t>
+  </si>
+  <si>
+    <t>彼女は看護師として、病院で働いています。|かのじょはかんごしとして、びょういんではたらいています。</t>
+  </si>
+  <si>
+    <t>消防士は、火事や災害の現場で命を守る大切な仕事をしています。|しょうぼうしは、かじやさいがいのげんばでいのちをまもるた</t>
+  </si>
+  <si>
+    <t>昼ごはんの後、散歩に行きます。 |ひるごはんのあと、さんぽにいきます。</t>
+  </si>
+  <si>
+    <t>彼女は日本出身です。 |かのじょはにほんしゅっしんです。</t>
+  </si>
+  <si>
+    <t>猫は小さくてかわいいです。そして、賢いです。 |ねこはちいさくてかわいいです。そして、かしこいです。</t>
+  </si>
+  <si>
+    <t>私は寿司が好きです。でも、マグロだけ食べません。 |わたしはすしい好きです。でも、まぐろだけたべません。</t>
+  </si>
+  <si>
+    <t>試験で90点を取りました。 |しけんできゅうじゅうてんをとりました。</t>
+  </si>
+  <si>
+    <t>久しぶりに会った友達と話しました。 |ひさしぶりにあったともだちとはなしました。</t>
+  </si>
+  <si>
+    <t>このレストランの料理はまあまあです。 |このれすとらんのりょうりはまあまあです。</t>
+  </si>
+  <si>
+    <t>もっと早く起きなければなりません。 |もっとはやくおきなければなりません。</t>
   </si>
   <si>
     <t>Genki 1.3</t>
@@ -3347,6 +3935,51 @@
   </si>
   <si>
     <t>Genki 1.9</t>
+  </si>
+  <si>
+    <t>～つもりだ</t>
+  </si>
+  <si>
+    <t>Intend to ～</t>
+  </si>
+  <si>
+    <t>Flight (noun)</t>
+  </si>
+  <si>
+    <t>便</t>
+  </si>
+  <si>
+    <t>びん</t>
+  </si>
+  <si>
+    <t>Cool (temperature)</t>
+  </si>
+  <si>
+    <t>Cold (temperature, object)</t>
+  </si>
+  <si>
+    <t>To take (a class); to get (a grade)</t>
+  </si>
+  <si>
+    <t>To own (a pet)</t>
+  </si>
+  <si>
+    <t>今日の仕事はもう終わりました. |きょうのしごとはもうおわりました.</t>
+  </si>
+  <si>
+    <t>To end/finish something</t>
+  </si>
+  <si>
+    <t>To begin/start something</t>
+  </si>
+  <si>
+    <t>To take (time/money)</t>
+  </si>
+  <si>
+    <t>Genki 1.11</t>
+  </si>
+  <si>
+    <t>On foot (e.g. walk)</t>
   </si>
 </sst>
 </file>
@@ -3370,18 +4003,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3411,14 +4038,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3758,20 +4381,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H312"/>
+  <dimension ref="A1:H399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F370" sqref="F370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="157" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -3805,10 +4426,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>400</v>
       </c>
       <c r="D2" t="s">
-        <v>631</v>
+        <v>793</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -3819,7 +4440,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -3830,7 +4451,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>324</v>
+        <v>402</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3840,14 +4461,14 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>403</v>
       </c>
       <c r="D5" t="s">
-        <v>632</v>
-      </c>
-      <c r="E5" t="s">
-        <v>865</v>
+        <v>794</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3858,10 +4479,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>633</v>
+        <v>795</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3872,10 +4493,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>405</v>
       </c>
       <c r="D7" t="s">
-        <v>634</v>
+        <v>796</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -3886,7 +4507,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>406</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -3897,10 +4518,10 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="D9" t="s">
-        <v>635</v>
+        <v>797</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -3911,10 +4532,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="D10" t="s">
-        <v>636</v>
+        <v>798</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -3925,10 +4546,10 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>409</v>
       </c>
       <c r="D11" t="s">
-        <v>637</v>
+        <v>799</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -3939,10 +4560,10 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>332</v>
+        <v>410</v>
       </c>
       <c r="D12" t="s">
-        <v>638</v>
+        <v>800</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -3953,10 +4574,10 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="D13" t="s">
-        <v>639</v>
+        <v>801</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -3967,10 +4588,10 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
       <c r="D14" t="s">
-        <v>640</v>
+        <v>802</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3981,10 +4602,10 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="D15" t="s">
-        <v>641</v>
+        <v>803</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -3995,10 +4616,10 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="D16" t="s">
-        <v>642</v>
+        <v>804</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -4009,7 +4630,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>337</v>
+        <v>415</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -4020,7 +4641,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>337</v>
+        <v>415</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -4031,7 +4652,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>338</v>
+        <v>416</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -4042,10 +4663,10 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>339</v>
+        <v>417</v>
       </c>
       <c r="D20" t="s">
-        <v>643</v>
+        <v>805</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -4056,7 +4677,7 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>418</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -4067,7 +4688,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>341</v>
+        <v>419</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -4078,10 +4699,10 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>342</v>
+        <v>420</v>
       </c>
       <c r="D23" t="s">
-        <v>644</v>
+        <v>806</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -4092,7 +4713,7 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -4103,10 +4724,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>344</v>
+        <v>422</v>
       </c>
       <c r="D25" t="s">
-        <v>645</v>
+        <v>807</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -4117,7 +4738,7 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>345</v>
+        <v>423</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -4128,10 +4749,10 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>346</v>
+        <v>424</v>
       </c>
       <c r="D27" t="s">
-        <v>646</v>
+        <v>808</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -4142,10 +4763,10 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>347</v>
+        <v>425</v>
       </c>
       <c r="D28" t="s">
-        <v>647</v>
+        <v>809</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -4156,10 +4777,10 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>348</v>
+        <v>426</v>
       </c>
       <c r="D29" t="s">
-        <v>648</v>
+        <v>810</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -4170,10 +4791,10 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>349</v>
+        <v>427</v>
       </c>
       <c r="D30" t="s">
-        <v>649</v>
+        <v>811</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -4184,7 +4805,7 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -4195,7 +4816,7 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>351</v>
+        <v>429</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -4206,10 +4827,10 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>352</v>
+        <v>430</v>
       </c>
       <c r="D33" t="s">
-        <v>650</v>
+        <v>812</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -4220,10 +4841,10 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>353</v>
+        <v>431</v>
       </c>
       <c r="D34" t="s">
-        <v>651</v>
+        <v>813</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -4234,7 +4855,7 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>354</v>
+        <v>432</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -4245,10 +4866,10 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
       <c r="D36" t="s">
-        <v>652</v>
+        <v>814</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4259,10 +4880,10 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="D37" t="s">
-        <v>653</v>
+        <v>815</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4273,7 +4894,7 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4284,12 +4905,17 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>358</v>
+        <v>436</v>
       </c>
       <c r="D39" t="s">
-        <v>654</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1091</v>
+      </c>
       <c r="H39">
         <v>1</v>
       </c>
@@ -4299,7 +4925,7 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4310,10 +4936,10 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="D41" t="s">
-        <v>655</v>
+        <v>817</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4324,10 +4950,10 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>361</v>
+        <v>439</v>
       </c>
       <c r="D42" t="s">
-        <v>656</v>
+        <v>818</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4338,10 +4964,10 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="D43" t="s">
-        <v>657</v>
+        <v>819</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4352,7 +4978,7 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>363</v>
+        <v>441</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4363,10 +4989,10 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="D45" t="s">
-        <v>658</v>
+        <v>820</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4377,10 +5003,10 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="D46" t="s">
-        <v>659</v>
+        <v>821</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4391,10 +5017,10 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="D47" t="s">
-        <v>660</v>
+        <v>822</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4405,13 +5031,13 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="D48" t="s">
-        <v>661</v>
+        <v>823</v>
       </c>
       <c r="G48" t="s">
-        <v>1031</v>
+        <v>1295</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4422,10 +5048,10 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>368</v>
+        <v>446</v>
       </c>
       <c r="D49" t="s">
-        <v>662</v>
+        <v>824</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4436,10 +5062,10 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="D50" t="s">
-        <v>663</v>
+        <v>825</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4450,10 +5076,10 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="D51" t="s">
-        <v>664</v>
+        <v>826</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -4464,10 +5090,10 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="D52" t="s">
-        <v>665</v>
+        <v>827</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -4478,10 +5104,10 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>372</v>
+        <v>450</v>
       </c>
       <c r="D53" t="s">
-        <v>666</v>
+        <v>828</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -4492,10 +5118,10 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="D54" t="s">
-        <v>667</v>
+        <v>829</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -4506,10 +5132,10 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="D55" t="s">
-        <v>668</v>
+        <v>830</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -4520,10 +5146,10 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="D56" t="s">
-        <v>669</v>
+        <v>831</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -4534,10 +5160,10 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>376</v>
+        <v>454</v>
       </c>
       <c r="D57" t="s">
-        <v>670</v>
+        <v>832</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -4548,10 +5174,10 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="D58" t="s">
-        <v>671</v>
+        <v>833</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -4562,10 +5188,10 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="D59" t="s">
-        <v>672</v>
+        <v>834</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -4576,10 +5202,10 @@
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>379</v>
+        <v>457</v>
       </c>
       <c r="D60" t="s">
-        <v>673</v>
+        <v>835</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -4590,10 +5216,10 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="D61" t="s">
-        <v>674</v>
+        <v>836</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -4604,10 +5230,10 @@
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
       <c r="D62" t="s">
-        <v>675</v>
+        <v>837</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -4618,10 +5244,13 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="E63" t="s">
-        <v>866</v>
+        <v>1092</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1092</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -4632,10 +5261,13 @@
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="E64" t="s">
-        <v>866</v>
+        <v>1092</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1092</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -4646,7 +5278,7 @@
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -4657,7 +5289,7 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>385</v>
+        <v>463</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -4668,10 +5300,10 @@
         <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
       <c r="D67" t="s">
-        <v>676</v>
+        <v>838</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -4682,10 +5314,10 @@
         <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>387</v>
+        <v>465</v>
       </c>
       <c r="G68" t="s">
-        <v>1032</v>
+        <v>1296</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -4696,10 +5328,10 @@
         <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>388</v>
+        <v>466</v>
       </c>
       <c r="D69" t="s">
-        <v>677</v>
+        <v>839</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -4710,7 +5342,7 @@
         <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -4721,10 +5353,10 @@
         <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>390</v>
+        <v>468</v>
       </c>
       <c r="D71" t="s">
-        <v>678</v>
+        <v>840</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -4735,10 +5367,10 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>391</v>
+        <v>469</v>
       </c>
       <c r="D72" t="s">
-        <v>679</v>
+        <v>841</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -4749,10 +5381,10 @@
         <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>392</v>
+        <v>470</v>
       </c>
       <c r="D73" t="s">
-        <v>680</v>
+        <v>842</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -4763,13 +5395,16 @@
         <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>393</v>
+        <v>471</v>
       </c>
       <c r="D74" t="s">
-        <v>681</v>
+        <v>843</v>
       </c>
       <c r="E74" t="s">
-        <v>867</v>
+        <v>1093</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1093</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -4780,10 +5415,10 @@
         <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="D75" t="s">
-        <v>682</v>
+        <v>844</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -4794,10 +5429,10 @@
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="D76" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -4808,10 +5443,10 @@
         <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>396</v>
+        <v>474</v>
       </c>
       <c r="D77" t="s">
-        <v>684</v>
+        <v>846</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -4822,10 +5457,10 @@
         <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="D78" t="s">
-        <v>685</v>
+        <v>847</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -4836,10 +5471,10 @@
         <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="D79" t="s">
-        <v>686</v>
+        <v>848</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -4850,10 +5485,10 @@
         <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>399</v>
+        <v>477</v>
       </c>
       <c r="D80" t="s">
-        <v>687</v>
+        <v>849</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -4864,10 +5499,10 @@
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D81" t="s">
-        <v>688</v>
+        <v>850</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -4878,10 +5513,10 @@
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="D82" t="s">
-        <v>689</v>
+        <v>851</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -4892,10 +5527,10 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="D83" t="s">
-        <v>690</v>
+        <v>852</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -4906,10 +5541,10 @@
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="D84" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -4920,10 +5555,10 @@
         <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="G85" t="s">
-        <v>1033</v>
+        <v>1297</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -4934,7 +5569,7 @@
         <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -4945,7 +5580,7 @@
         <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -4956,7 +5591,7 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>407</v>
+        <v>485</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -4967,7 +5602,7 @@
         <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>408</v>
+        <v>486</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -4978,7 +5613,7 @@
         <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -4989,7 +5624,7 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -5000,7 +5635,7 @@
         <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -5011,7 +5646,7 @@
         <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>412</v>
+        <v>490</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -5022,7 +5657,7 @@
         <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>413</v>
+        <v>491</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -5033,7 +5668,7 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -5044,10 +5679,10 @@
         <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>415</v>
+        <v>493</v>
       </c>
       <c r="D96" t="s">
-        <v>691</v>
+        <v>853</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -5058,10 +5693,10 @@
         <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>416</v>
+        <v>494</v>
       </c>
       <c r="D97" t="s">
-        <v>692</v>
+        <v>854</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -5072,7 +5707,7 @@
         <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>417</v>
+        <v>495</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -5083,10 +5718,10 @@
         <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>418</v>
+        <v>496</v>
       </c>
       <c r="D99" t="s">
-        <v>693</v>
+        <v>855</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -5097,10 +5732,10 @@
         <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>419</v>
+        <v>497</v>
       </c>
       <c r="D100" t="s">
-        <v>694</v>
+        <v>856</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -5111,10 +5746,13 @@
         <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="E101" t="s">
-        <v>868</v>
+        <v>1094</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1094</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -5125,7 +5763,7 @@
         <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>421</v>
+        <v>499</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -5136,13 +5774,13 @@
         <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="D103" t="s">
-        <v>695</v>
+        <v>857</v>
       </c>
       <c r="G103" t="s">
-        <v>1034</v>
+        <v>1298</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -5153,10 +5791,10 @@
         <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="D104" t="s">
-        <v>696</v>
+        <v>858</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -5167,7 +5805,7 @@
         <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -5178,10 +5816,10 @@
         <v>111</v>
       </c>
       <c r="C106" t="s">
-        <v>425</v>
+        <v>503</v>
       </c>
       <c r="D106" t="s">
-        <v>697</v>
+        <v>859</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -5192,10 +5830,10 @@
         <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>426</v>
+        <v>504</v>
       </c>
       <c r="D107" t="s">
-        <v>698</v>
+        <v>860</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -5206,13 +5844,16 @@
         <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>427</v>
+        <v>505</v>
       </c>
       <c r="D108" t="s">
-        <v>699</v>
+        <v>861</v>
       </c>
       <c r="E108" t="s">
-        <v>869</v>
+        <v>1095</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1095</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -5223,13 +5864,16 @@
         <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>428</v>
+        <v>506</v>
       </c>
       <c r="D109" t="s">
-        <v>700</v>
+        <v>862</v>
       </c>
       <c r="E109" t="s">
-        <v>870</v>
+        <v>1096</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1096</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -5240,13 +5884,16 @@
         <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>429</v>
+        <v>507</v>
       </c>
       <c r="D110" t="s">
-        <v>700</v>
+        <v>862</v>
       </c>
       <c r="E110" t="s">
-        <v>871</v>
+        <v>1097</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1097</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -5257,13 +5904,16 @@
         <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>430</v>
+        <v>508</v>
       </c>
       <c r="D111" t="s">
-        <v>701</v>
+        <v>863</v>
       </c>
       <c r="E111" t="s">
-        <v>872</v>
+        <v>1098</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1098</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -5274,10 +5924,13 @@
         <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>431</v>
+        <v>509</v>
       </c>
       <c r="E112" t="s">
-        <v>873</v>
+        <v>1099</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1099</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -5288,13 +5941,16 @@
         <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="D113" t="s">
-        <v>702</v>
+        <v>864</v>
       </c>
       <c r="E113" t="s">
-        <v>874</v>
+        <v>1100</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1100</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -5305,13 +5961,16 @@
         <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>433</v>
+        <v>511</v>
       </c>
       <c r="D114" t="s">
-        <v>703</v>
+        <v>865</v>
       </c>
       <c r="E114" t="s">
-        <v>875</v>
+        <v>1101</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1101</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -5322,10 +5981,13 @@
         <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
       <c r="E115" t="s">
-        <v>876</v>
+        <v>1102</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1102</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -5336,10 +5998,13 @@
         <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>435</v>
+        <v>513</v>
       </c>
       <c r="E116" t="s">
-        <v>877</v>
+        <v>1103</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1103</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -5350,10 +6015,13 @@
         <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>436</v>
+        <v>514</v>
       </c>
       <c r="E117" t="s">
-        <v>878</v>
+        <v>1104</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1104</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -5364,13 +6032,16 @@
         <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="D118" t="s">
-        <v>704</v>
+        <v>866</v>
       </c>
       <c r="E118" t="s">
-        <v>879</v>
+        <v>1105</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1105</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -5381,13 +6052,16 @@
         <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>438</v>
+        <v>516</v>
       </c>
       <c r="D119" t="s">
-        <v>705</v>
+        <v>867</v>
       </c>
       <c r="E119" t="s">
-        <v>880</v>
+        <v>1106</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1106</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -5398,13 +6072,16 @@
         <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>439</v>
+        <v>517</v>
       </c>
       <c r="D120" t="s">
-        <v>706</v>
+        <v>868</v>
       </c>
       <c r="E120" t="s">
-        <v>881</v>
+        <v>1107</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1107</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -5415,13 +6092,16 @@
         <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="D121" t="s">
-        <v>671</v>
+        <v>833</v>
       </c>
       <c r="E121" t="s">
-        <v>882</v>
+        <v>1108</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1108</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -5432,13 +6112,16 @@
         <v>127</v>
       </c>
       <c r="C122" t="s">
-        <v>440</v>
+        <v>518</v>
       </c>
       <c r="D122" t="s">
-        <v>707</v>
+        <v>869</v>
       </c>
       <c r="E122" t="s">
-        <v>883</v>
+        <v>1109</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1109</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -5449,10 +6132,13 @@
         <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>441</v>
+        <v>519</v>
       </c>
       <c r="E123" t="s">
-        <v>884</v>
+        <v>1110</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1110</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -5463,13 +6149,16 @@
         <v>129</v>
       </c>
       <c r="C124" t="s">
-        <v>442</v>
+        <v>520</v>
       </c>
       <c r="D124" t="s">
-        <v>708</v>
+        <v>870</v>
       </c>
       <c r="E124" t="s">
-        <v>885</v>
+        <v>1111</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1111</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -5480,7 +6169,7 @@
         <v>130</v>
       </c>
       <c r="C125" t="s">
-        <v>443</v>
+        <v>521</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -5491,10 +6180,10 @@
         <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="D126" t="s">
-        <v>709</v>
+        <v>871</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -5505,7 +6194,7 @@
         <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>445</v>
+        <v>523</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -5516,10 +6205,10 @@
         <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>446</v>
+        <v>524</v>
       </c>
       <c r="G128" t="s">
-        <v>1035</v>
+        <v>1299</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -5530,10 +6219,10 @@
         <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="D129" t="s">
-        <v>710</v>
+        <v>872</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -5544,10 +6233,10 @@
         <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>448</v>
+        <v>526</v>
       </c>
       <c r="D130" t="s">
-        <v>711</v>
+        <v>873</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -5558,13 +6247,13 @@
         <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>449</v>
+        <v>527</v>
       </c>
       <c r="D131" t="s">
-        <v>712</v>
+        <v>874</v>
       </c>
       <c r="G131" t="s">
-        <v>1032</v>
+        <v>1296</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -5575,10 +6264,10 @@
         <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>450</v>
+        <v>528</v>
       </c>
       <c r="D132" t="s">
-        <v>713</v>
+        <v>875</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -5589,10 +6278,10 @@
         <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>451</v>
+        <v>529</v>
       </c>
       <c r="D133" t="s">
-        <v>714</v>
+        <v>876</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -5603,10 +6292,10 @@
         <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>452</v>
+        <v>530</v>
       </c>
       <c r="D134" t="s">
-        <v>715</v>
+        <v>877</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -5617,10 +6306,10 @@
         <v>140</v>
       </c>
       <c r="C135" t="s">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="D135" t="s">
-        <v>716</v>
+        <v>878</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -5631,10 +6320,10 @@
         <v>141</v>
       </c>
       <c r="C136" t="s">
-        <v>454</v>
+        <v>532</v>
       </c>
       <c r="D136" t="s">
-        <v>717</v>
+        <v>879</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -5645,10 +6334,10 @@
         <v>142</v>
       </c>
       <c r="C137" t="s">
-        <v>455</v>
+        <v>533</v>
       </c>
       <c r="D137" t="s">
-        <v>718</v>
+        <v>880</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -5659,10 +6348,10 @@
         <v>143</v>
       </c>
       <c r="C138" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
       <c r="D138" t="s">
-        <v>719</v>
+        <v>881</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -5673,10 +6362,10 @@
         <v>144</v>
       </c>
       <c r="C139" t="s">
-        <v>457</v>
+        <v>535</v>
       </c>
       <c r="D139" t="s">
-        <v>720</v>
+        <v>882</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -5687,13 +6376,16 @@
         <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>458</v>
+        <v>536</v>
       </c>
       <c r="D140" t="s">
-        <v>721</v>
+        <v>883</v>
       </c>
       <c r="E140" t="s">
-        <v>886</v>
+        <v>1112</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1112</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -5704,10 +6396,10 @@
         <v>146</v>
       </c>
       <c r="C141" t="s">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="D141" t="s">
-        <v>722</v>
+        <v>884</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -5718,13 +6410,13 @@
         <v>147</v>
       </c>
       <c r="C142" t="s">
-        <v>460</v>
+        <v>538</v>
       </c>
       <c r="D142" t="s">
-        <v>723</v>
+        <v>885</v>
       </c>
       <c r="G142" t="s">
-        <v>1035</v>
+        <v>1299</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -5735,7 +6427,7 @@
         <v>148</v>
       </c>
       <c r="C143" t="s">
-        <v>461</v>
+        <v>539</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -5746,13 +6438,13 @@
         <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>462</v>
+        <v>540</v>
       </c>
       <c r="D144" t="s">
-        <v>724</v>
+        <v>886</v>
       </c>
       <c r="G144" t="s">
-        <v>1036</v>
+        <v>1300</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -5763,10 +6455,10 @@
         <v>150</v>
       </c>
       <c r="C145" t="s">
-        <v>463</v>
+        <v>541</v>
       </c>
       <c r="D145" t="s">
-        <v>725</v>
+        <v>887</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -5777,10 +6469,10 @@
         <v>151</v>
       </c>
       <c r="C146" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="D146" t="s">
-        <v>726</v>
+        <v>888</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -5791,10 +6483,10 @@
         <v>152</v>
       </c>
       <c r="C147" t="s">
-        <v>465</v>
+        <v>543</v>
       </c>
       <c r="D147" t="s">
-        <v>727</v>
+        <v>889</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -5805,13 +6497,10 @@
         <v>153</v>
       </c>
       <c r="C148" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
       <c r="D148" t="s">
-        <v>728</v>
-      </c>
-      <c r="F148" t="s">
-        <v>973</v>
+        <v>890</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -5822,10 +6511,10 @@
         <v>154</v>
       </c>
       <c r="C149" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="D149" t="s">
-        <v>729</v>
+        <v>891</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -5836,10 +6525,10 @@
         <v>155</v>
       </c>
       <c r="C150" t="s">
-        <v>468</v>
+        <v>546</v>
       </c>
       <c r="D150" t="s">
-        <v>730</v>
+        <v>892</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -5850,10 +6539,10 @@
         <v>156</v>
       </c>
       <c r="C151" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="D151" t="s">
-        <v>731</v>
+        <v>893</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -5864,10 +6553,10 @@
         <v>157</v>
       </c>
       <c r="C152" t="s">
-        <v>470</v>
+        <v>548</v>
       </c>
       <c r="D152" t="s">
-        <v>732</v>
+        <v>894</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -5878,10 +6567,10 @@
         <v>158</v>
       </c>
       <c r="C153" t="s">
-        <v>471</v>
+        <v>549</v>
       </c>
       <c r="D153" t="s">
-        <v>733</v>
+        <v>895</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -5892,16 +6581,16 @@
         <v>159</v>
       </c>
       <c r="C154" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="D154" t="s">
-        <v>734</v>
+        <v>896</v>
       </c>
       <c r="E154" t="s">
-        <v>887</v>
+        <v>1113</v>
       </c>
       <c r="F154" t="s">
-        <v>974</v>
+        <v>1113</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -5912,13 +6601,16 @@
         <v>160</v>
       </c>
       <c r="C155" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="D155" t="s">
-        <v>735</v>
+        <v>897</v>
       </c>
       <c r="E155" t="s">
-        <v>888</v>
+        <v>1114</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1114</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -5929,13 +6621,16 @@
         <v>161</v>
       </c>
       <c r="C156" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="D156" t="s">
-        <v>736</v>
+        <v>898</v>
       </c>
       <c r="E156" t="s">
-        <v>889</v>
+        <v>1115</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1115</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -5946,13 +6641,16 @@
         <v>162</v>
       </c>
       <c r="C157" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
       <c r="D157" t="s">
-        <v>737</v>
+        <v>899</v>
       </c>
       <c r="E157" t="s">
-        <v>890</v>
+        <v>1116</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1116</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -5963,13 +6661,16 @@
         <v>163</v>
       </c>
       <c r="C158" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="D158" t="s">
-        <v>738</v>
+        <v>900</v>
       </c>
       <c r="E158" t="s">
-        <v>891</v>
+        <v>1117</v>
+      </c>
+      <c r="F158" t="s">
+        <v>1117</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -5980,13 +6681,16 @@
         <v>164</v>
       </c>
       <c r="C159" t="s">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="D159" t="s">
-        <v>739</v>
+        <v>901</v>
       </c>
       <c r="E159" t="s">
-        <v>892</v>
+        <v>1118</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1118</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -5997,13 +6701,16 @@
         <v>165</v>
       </c>
       <c r="C160" t="s">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="D160" t="s">
-        <v>740</v>
+        <v>902</v>
       </c>
       <c r="E160" t="s">
-        <v>893</v>
+        <v>1119</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1119</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -6014,13 +6721,16 @@
         <v>166</v>
       </c>
       <c r="C161" t="s">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="D161" t="s">
-        <v>741</v>
+        <v>903</v>
       </c>
       <c r="E161" t="s">
-        <v>894</v>
+        <v>1120</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1120</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -6031,13 +6741,16 @@
         <v>167</v>
       </c>
       <c r="C162" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="D162" t="s">
-        <v>742</v>
+        <v>904</v>
       </c>
       <c r="E162" t="s">
-        <v>895</v>
+        <v>1121</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1121</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -6048,13 +6761,16 @@
         <v>168</v>
       </c>
       <c r="C163" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="D163" t="s">
-        <v>743</v>
+        <v>905</v>
       </c>
       <c r="E163" t="s">
-        <v>896</v>
+        <v>1122</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1122</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -6065,13 +6781,16 @@
         <v>169</v>
       </c>
       <c r="C164" t="s">
-        <v>482</v>
+        <v>560</v>
       </c>
       <c r="D164" t="s">
-        <v>744</v>
+        <v>906</v>
       </c>
       <c r="E164" t="s">
-        <v>897</v>
+        <v>1123</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1123</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -6082,13 +6801,16 @@
         <v>170</v>
       </c>
       <c r="C165" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="D165" t="s">
-        <v>745</v>
+        <v>907</v>
       </c>
       <c r="E165" t="s">
-        <v>898</v>
+        <v>1124</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1124</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -6099,13 +6821,16 @@
         <v>171</v>
       </c>
       <c r="C166" t="s">
-        <v>484</v>
+        <v>562</v>
       </c>
       <c r="D166" t="s">
-        <v>746</v>
+        <v>908</v>
       </c>
       <c r="E166" t="s">
-        <v>899</v>
+        <v>1125</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1125</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -6116,13 +6841,16 @@
         <v>172</v>
       </c>
       <c r="C167" t="s">
-        <v>485</v>
+        <v>563</v>
       </c>
       <c r="D167" t="s">
-        <v>747</v>
+        <v>909</v>
       </c>
       <c r="E167" t="s">
-        <v>900</v>
+        <v>1126</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1126</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -6133,13 +6861,16 @@
         <v>173</v>
       </c>
       <c r="C168" t="s">
-        <v>486</v>
+        <v>564</v>
       </c>
       <c r="D168" t="s">
-        <v>748</v>
+        <v>910</v>
       </c>
       <c r="E168" t="s">
-        <v>901</v>
+        <v>1127</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1127</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -6150,13 +6881,16 @@
         <v>174</v>
       </c>
       <c r="C169" t="s">
-        <v>487</v>
+        <v>565</v>
       </c>
       <c r="D169" t="s">
-        <v>749</v>
+        <v>911</v>
       </c>
       <c r="E169" t="s">
-        <v>902</v>
+        <v>1128</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1128</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -6167,13 +6901,16 @@
         <v>175</v>
       </c>
       <c r="C170" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="D170" t="s">
-        <v>750</v>
+        <v>912</v>
       </c>
       <c r="E170" t="s">
-        <v>903</v>
+        <v>1129</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1129</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -6184,13 +6921,16 @@
         <v>176</v>
       </c>
       <c r="C171" t="s">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="D171" t="s">
-        <v>751</v>
+        <v>913</v>
       </c>
       <c r="E171" t="s">
-        <v>904</v>
+        <v>1130</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1130</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -6201,13 +6941,16 @@
         <v>177</v>
       </c>
       <c r="C172" t="s">
-        <v>490</v>
+        <v>568</v>
       </c>
       <c r="D172" t="s">
-        <v>752</v>
+        <v>914</v>
       </c>
       <c r="E172" t="s">
-        <v>905</v>
+        <v>1131</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1131</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -6218,13 +6961,16 @@
         <v>178</v>
       </c>
       <c r="C173" t="s">
-        <v>491</v>
+        <v>569</v>
       </c>
       <c r="D173" t="s">
-        <v>753</v>
+        <v>915</v>
       </c>
       <c r="E173" t="s">
-        <v>906</v>
+        <v>1132</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1132</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -6235,13 +6981,16 @@
         <v>179</v>
       </c>
       <c r="C174" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="D174" t="s">
-        <v>754</v>
+        <v>916</v>
       </c>
       <c r="E174" t="s">
-        <v>907</v>
+        <v>1133</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1133</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -6252,10 +7001,13 @@
         <v>180</v>
       </c>
       <c r="C175" t="s">
-        <v>493</v>
+        <v>571</v>
       </c>
       <c r="E175" t="s">
-        <v>908</v>
+        <v>1134</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1134</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -6266,13 +7018,16 @@
         <v>181</v>
       </c>
       <c r="C176" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="D176" t="s">
-        <v>755</v>
+        <v>917</v>
       </c>
       <c r="E176" t="s">
-        <v>909</v>
+        <v>1135</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1135</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -6283,13 +7038,16 @@
         <v>182</v>
       </c>
       <c r="C177" t="s">
-        <v>495</v>
+        <v>573</v>
       </c>
       <c r="D177" t="s">
-        <v>756</v>
+        <v>918</v>
       </c>
       <c r="E177" t="s">
-        <v>910</v>
+        <v>1136</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1136</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -6300,13 +7058,16 @@
         <v>183</v>
       </c>
       <c r="C178" t="s">
-        <v>496</v>
+        <v>574</v>
       </c>
       <c r="D178" t="s">
-        <v>757</v>
+        <v>919</v>
       </c>
       <c r="E178" t="s">
-        <v>911</v>
+        <v>1137</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1137</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -6317,13 +7078,16 @@
         <v>184</v>
       </c>
       <c r="C179" t="s">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="D179" t="s">
-        <v>758</v>
+        <v>920</v>
       </c>
       <c r="E179" t="s">
-        <v>912</v>
+        <v>1138</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1138</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -6334,13 +7098,10 @@
         <v>185</v>
       </c>
       <c r="C180" t="s">
-        <v>498</v>
+        <v>576</v>
       </c>
       <c r="D180" t="s">
-        <v>759</v>
-      </c>
-      <c r="F180" t="s">
-        <v>975</v>
+        <v>921</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -6351,16 +7112,13 @@
         <v>186</v>
       </c>
       <c r="C181" t="s">
-        <v>499</v>
+        <v>577</v>
       </c>
       <c r="D181" t="s">
-        <v>760</v>
-      </c>
-      <c r="F181" t="s">
-        <v>976</v>
+        <v>922</v>
       </c>
       <c r="G181" t="s">
-        <v>1037</v>
+        <v>1301</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -6371,10 +7129,10 @@
         <v>187</v>
       </c>
       <c r="C182" t="s">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="D182" t="s">
-        <v>761</v>
+        <v>923</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -6385,10 +7143,7 @@
         <v>188</v>
       </c>
       <c r="C183" t="s">
-        <v>501</v>
-      </c>
-      <c r="F183" t="s">
-        <v>977</v>
+        <v>579</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -6399,10 +7154,10 @@
         <v>189</v>
       </c>
       <c r="C184" t="s">
-        <v>502</v>
+        <v>580</v>
       </c>
       <c r="D184" t="s">
-        <v>762</v>
+        <v>924</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -6413,7 +7168,7 @@
         <v>190</v>
       </c>
       <c r="C185" t="s">
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -6424,7 +7179,7 @@
         <v>191</v>
       </c>
       <c r="C186" t="s">
-        <v>504</v>
+        <v>582</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -6435,13 +7190,10 @@
         <v>192</v>
       </c>
       <c r="C187" t="s">
-        <v>505</v>
-      </c>
-      <c r="F187" t="s">
-        <v>978</v>
+        <v>583</v>
       </c>
       <c r="G187" t="s">
-        <v>1035</v>
+        <v>1299</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -6452,10 +7204,7 @@
         <v>193</v>
       </c>
       <c r="C188" t="s">
-        <v>506</v>
-      </c>
-      <c r="F188" t="s">
-        <v>979</v>
+        <v>584</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -6466,13 +7215,13 @@
         <v>194</v>
       </c>
       <c r="C189" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="D189" t="s">
-        <v>763</v>
+        <v>925</v>
       </c>
       <c r="G189" t="s">
-        <v>1034</v>
+        <v>1298</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -6483,13 +7232,10 @@
         <v>195</v>
       </c>
       <c r="C190" t="s">
-        <v>508</v>
+        <v>586</v>
       </c>
       <c r="D190" t="s">
-        <v>764</v>
-      </c>
-      <c r="F190" t="s">
-        <v>980</v>
+        <v>926</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -6500,13 +7246,16 @@
         <v>196</v>
       </c>
       <c r="C191" t="s">
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="D191" t="s">
-        <v>765</v>
+        <v>927</v>
       </c>
       <c r="E191" t="s">
-        <v>913</v>
+        <v>1139</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1139</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -6517,16 +7266,19 @@
         <v>197</v>
       </c>
       <c r="C192" t="s">
-        <v>510</v>
+        <v>588</v>
       </c>
       <c r="D192" t="s">
-        <v>766</v>
+        <v>928</v>
       </c>
       <c r="E192" t="s">
-        <v>914</v>
+        <v>1140</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1140</v>
       </c>
       <c r="G192" t="s">
-        <v>1038</v>
+        <v>1302</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -6537,16 +7289,16 @@
         <v>198</v>
       </c>
       <c r="C193" t="s">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="D193" t="s">
-        <v>767</v>
+        <v>929</v>
       </c>
       <c r="E193" t="s">
-        <v>915</v>
+        <v>1141</v>
       </c>
       <c r="F193" t="s">
-        <v>981</v>
+        <v>1141</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -6557,13 +7309,16 @@
         <v>199</v>
       </c>
       <c r="C194" t="s">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="D194" t="s">
-        <v>768</v>
+        <v>930</v>
       </c>
       <c r="E194" t="s">
-        <v>916</v>
+        <v>1142</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1142</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -6574,10 +7329,10 @@
         <v>200</v>
       </c>
       <c r="C195" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="D195" t="s">
-        <v>769</v>
+        <v>931</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -6588,10 +7343,10 @@
         <v>201</v>
       </c>
       <c r="C196" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="D196" t="s">
-        <v>770</v>
+        <v>932</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -6602,7 +7357,7 @@
         <v>202</v>
       </c>
       <c r="C197" t="s">
-        <v>515</v>
+        <v>593</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -6613,10 +7368,10 @@
         <v>203</v>
       </c>
       <c r="C198" t="s">
-        <v>516</v>
+        <v>594</v>
       </c>
       <c r="D198" t="s">
-        <v>771</v>
+        <v>933</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -6627,10 +7382,10 @@
         <v>204</v>
       </c>
       <c r="C199" t="s">
-        <v>517</v>
+        <v>595</v>
       </c>
       <c r="D199" t="s">
-        <v>772</v>
+        <v>934</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -6641,10 +7396,10 @@
         <v>205</v>
       </c>
       <c r="C200" t="s">
-        <v>518</v>
+        <v>596</v>
       </c>
       <c r="D200" t="s">
-        <v>773</v>
+        <v>935</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -6655,10 +7410,10 @@
         <v>206</v>
       </c>
       <c r="C201" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="D201" t="s">
-        <v>774</v>
+        <v>936</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -6669,10 +7424,10 @@
         <v>207</v>
       </c>
       <c r="C202" t="s">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="D202" t="s">
-        <v>775</v>
+        <v>937</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -6683,10 +7438,10 @@
         <v>208</v>
       </c>
       <c r="C203" t="s">
-        <v>521</v>
+        <v>599</v>
       </c>
       <c r="D203" t="s">
-        <v>776</v>
+        <v>938</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -6697,10 +7452,10 @@
         <v>209</v>
       </c>
       <c r="C204" t="s">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="D204" t="s">
-        <v>777</v>
+        <v>939</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -6711,10 +7466,10 @@
         <v>210</v>
       </c>
       <c r="C205" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="D205" t="s">
-        <v>778</v>
+        <v>940</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -6725,10 +7480,10 @@
         <v>211</v>
       </c>
       <c r="C206" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="D206" t="s">
-        <v>779</v>
+        <v>941</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -6739,7 +7494,7 @@
         <v>212</v>
       </c>
       <c r="C207" t="s">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -6750,10 +7505,10 @@
         <v>213</v>
       </c>
       <c r="C208" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="D208" t="s">
-        <v>780</v>
+        <v>942</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -6764,10 +7519,10 @@
         <v>214</v>
       </c>
       <c r="C209" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
       <c r="D209" t="s">
-        <v>781</v>
+        <v>943</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -6778,13 +7533,16 @@
         <v>215</v>
       </c>
       <c r="C210" t="s">
-        <v>528</v>
+        <v>606</v>
       </c>
       <c r="D210" t="s">
-        <v>782</v>
+        <v>944</v>
       </c>
       <c r="E210" t="s">
-        <v>917</v>
+        <v>1143</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1143</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -6795,13 +7553,16 @@
         <v>216</v>
       </c>
       <c r="C211" t="s">
-        <v>529</v>
+        <v>607</v>
       </c>
       <c r="D211" t="s">
-        <v>783</v>
+        <v>945</v>
       </c>
       <c r="E211" t="s">
-        <v>918</v>
+        <v>1144</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1144</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -6812,13 +7573,16 @@
         <v>217</v>
       </c>
       <c r="C212" t="s">
-        <v>530</v>
+        <v>608</v>
       </c>
       <c r="D212" t="s">
-        <v>784</v>
+        <v>946</v>
       </c>
       <c r="E212" t="s">
-        <v>919</v>
+        <v>1145</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1145</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -6829,13 +7593,16 @@
         <v>218</v>
       </c>
       <c r="C213" t="s">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="D213" t="s">
-        <v>785</v>
+        <v>947</v>
       </c>
       <c r="E213" t="s">
-        <v>920</v>
+        <v>1146</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1146</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -6846,13 +7613,16 @@
         <v>219</v>
       </c>
       <c r="C214" t="s">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="D214" t="s">
-        <v>786</v>
+        <v>948</v>
       </c>
       <c r="E214" t="s">
-        <v>921</v>
+        <v>1147</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1147</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -6863,13 +7633,16 @@
         <v>220</v>
       </c>
       <c r="C215" t="s">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="D215" t="s">
-        <v>787</v>
+        <v>949</v>
       </c>
       <c r="E215" t="s">
-        <v>922</v>
+        <v>1148</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1148</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -6880,13 +7653,16 @@
         <v>221</v>
       </c>
       <c r="C216" t="s">
-        <v>534</v>
+        <v>612</v>
       </c>
       <c r="D216" t="s">
-        <v>788</v>
+        <v>950</v>
       </c>
       <c r="E216" t="s">
-        <v>923</v>
+        <v>1149</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1149</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -6897,13 +7673,16 @@
         <v>222</v>
       </c>
       <c r="C217" t="s">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="D217" t="s">
-        <v>789</v>
+        <v>951</v>
       </c>
       <c r="E217" t="s">
-        <v>924</v>
+        <v>1150</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1150</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -6914,13 +7693,16 @@
         <v>223</v>
       </c>
       <c r="C218" t="s">
-        <v>536</v>
+        <v>614</v>
       </c>
       <c r="D218" t="s">
-        <v>790</v>
+        <v>952</v>
       </c>
       <c r="E218" t="s">
-        <v>925</v>
+        <v>1151</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1151</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -6931,13 +7713,16 @@
         <v>224</v>
       </c>
       <c r="C219" t="s">
-        <v>537</v>
+        <v>615</v>
       </c>
       <c r="D219" t="s">
-        <v>791</v>
+        <v>953</v>
       </c>
       <c r="E219" t="s">
-        <v>926</v>
+        <v>1152</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1152</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -6948,13 +7733,13 @@
         <v>225</v>
       </c>
       <c r="B220" t="s">
-        <v>318</v>
+        <v>396</v>
       </c>
       <c r="C220" t="s">
-        <v>538</v>
+        <v>616</v>
       </c>
       <c r="D220" t="s">
-        <v>792</v>
+        <v>954</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -6965,13 +7750,13 @@
         <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="C221" t="s">
-        <v>539</v>
+        <v>617</v>
       </c>
       <c r="D221" t="s">
-        <v>793</v>
+        <v>955</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -6982,10 +7767,13 @@
         <v>227</v>
       </c>
       <c r="C222" t="s">
-        <v>540</v>
+        <v>618</v>
       </c>
       <c r="E222" t="s">
-        <v>927</v>
+        <v>1153</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1153</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -6996,13 +7784,16 @@
         <v>228</v>
       </c>
       <c r="C223" t="s">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="D223" t="s">
-        <v>794</v>
+        <v>956</v>
       </c>
       <c r="E223" t="s">
-        <v>928</v>
+        <v>1154</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1154</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -7013,13 +7804,13 @@
         <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="C224" t="s">
-        <v>542</v>
+        <v>620</v>
       </c>
       <c r="D224" t="s">
-        <v>795</v>
+        <v>957</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -7030,13 +7821,13 @@
         <v>230</v>
       </c>
       <c r="C225" t="s">
-        <v>543</v>
+        <v>621</v>
       </c>
       <c r="E225" t="s">
-        <v>929</v>
+        <v>1155</v>
       </c>
       <c r="F225" t="s">
-        <v>982</v>
+        <v>1155</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -7047,13 +7838,16 @@
         <v>231</v>
       </c>
       <c r="C226" t="s">
-        <v>544</v>
+        <v>622</v>
       </c>
       <c r="D226" t="s">
-        <v>796</v>
+        <v>958</v>
       </c>
       <c r="E226" t="s">
-        <v>930</v>
+        <v>1156</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1156</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -7064,13 +7858,16 @@
         <v>232</v>
       </c>
       <c r="C227" t="s">
-        <v>545</v>
+        <v>623</v>
       </c>
       <c r="D227" t="s">
-        <v>797</v>
+        <v>959</v>
       </c>
       <c r="E227" t="s">
-        <v>931</v>
+        <v>1157</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1157</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -7081,10 +7878,13 @@
         <v>233</v>
       </c>
       <c r="C228" t="s">
-        <v>546</v>
+        <v>624</v>
       </c>
       <c r="E228" t="s">
-        <v>932</v>
+        <v>1158</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1158</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -7095,10 +7895,10 @@
         <v>234</v>
       </c>
       <c r="B229" t="s">
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="C229" t="s">
-        <v>547</v>
+        <v>625</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -7109,13 +7909,16 @@
         <v>235</v>
       </c>
       <c r="C230" t="s">
-        <v>548</v>
+        <v>626</v>
       </c>
       <c r="D230" t="s">
-        <v>798</v>
+        <v>960</v>
       </c>
       <c r="E230" t="s">
-        <v>933</v>
+        <v>1159</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1159</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -7126,7 +7929,7 @@
         <v>236</v>
       </c>
       <c r="C231" t="s">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -7137,10 +7940,10 @@
         <v>237</v>
       </c>
       <c r="C232" t="s">
-        <v>550</v>
+        <v>628</v>
       </c>
       <c r="D232" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -7151,10 +7954,10 @@
         <v>238</v>
       </c>
       <c r="C233" t="s">
-        <v>551</v>
+        <v>629</v>
       </c>
       <c r="D233" t="s">
-        <v>800</v>
+        <v>962</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -7165,13 +7968,10 @@
         <v>239</v>
       </c>
       <c r="C234" t="s">
-        <v>552</v>
+        <v>630</v>
       </c>
       <c r="D234" t="s">
-        <v>801</v>
-      </c>
-      <c r="F234" t="s">
-        <v>983</v>
+        <v>963</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -7182,10 +7982,7 @@
         <v>240</v>
       </c>
       <c r="C235" t="s">
-        <v>553</v>
-      </c>
-      <c r="F235" t="s">
-        <v>984</v>
+        <v>631</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -7196,10 +7993,7 @@
         <v>241</v>
       </c>
       <c r="C236" t="s">
-        <v>554</v>
-      </c>
-      <c r="F236" t="s">
-        <v>985</v>
+        <v>632</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -7210,13 +8004,10 @@
         <v>242</v>
       </c>
       <c r="C237" t="s">
-        <v>555</v>
+        <v>633</v>
       </c>
       <c r="D237" t="s">
-        <v>802</v>
-      </c>
-      <c r="F237" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -7227,10 +8018,7 @@
         <v>243</v>
       </c>
       <c r="C238" t="s">
-        <v>556</v>
-      </c>
-      <c r="F238" t="s">
-        <v>987</v>
+        <v>634</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -7241,10 +8029,10 @@
         <v>244</v>
       </c>
       <c r="C239" t="s">
-        <v>557</v>
+        <v>635</v>
       </c>
       <c r="D239" t="s">
-        <v>803</v>
+        <v>965</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -7255,10 +8043,7 @@
         <v>245</v>
       </c>
       <c r="C240" t="s">
-        <v>558</v>
-      </c>
-      <c r="F240" t="s">
-        <v>988</v>
+        <v>636</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -7269,10 +8054,7 @@
         <v>246</v>
       </c>
       <c r="C241" t="s">
-        <v>559</v>
-      </c>
-      <c r="F241" t="s">
-        <v>989</v>
+        <v>637</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -7283,13 +8065,13 @@
         <v>247</v>
       </c>
       <c r="C242" t="s">
-        <v>560</v>
+        <v>638</v>
       </c>
       <c r="D242" t="s">
-        <v>804</v>
+        <v>966</v>
       </c>
       <c r="G242" t="s">
-        <v>1039</v>
+        <v>1303</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -7300,10 +8082,10 @@
         <v>248</v>
       </c>
       <c r="C243" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="D243" t="s">
-        <v>805</v>
+        <v>967</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -7314,10 +8096,10 @@
         <v>249</v>
       </c>
       <c r="C244" t="s">
-        <v>562</v>
+        <v>640</v>
       </c>
       <c r="D244" t="s">
-        <v>806</v>
+        <v>968</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -7328,7 +8110,7 @@
         <v>250</v>
       </c>
       <c r="C245" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -7339,7 +8121,7 @@
         <v>251</v>
       </c>
       <c r="C246" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -7350,10 +8132,10 @@
         <v>252</v>
       </c>
       <c r="C247" t="s">
-        <v>565</v>
+        <v>643</v>
       </c>
       <c r="D247" t="s">
-        <v>807</v>
+        <v>969</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -7364,10 +8146,10 @@
         <v>253</v>
       </c>
       <c r="C248" t="s">
-        <v>566</v>
+        <v>644</v>
       </c>
       <c r="D248" t="s">
-        <v>808</v>
+        <v>970</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -7378,10 +8160,10 @@
         <v>254</v>
       </c>
       <c r="C249" t="s">
-        <v>567</v>
+        <v>645</v>
       </c>
       <c r="D249" t="s">
-        <v>809</v>
+        <v>971</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -7392,10 +8174,10 @@
         <v>255</v>
       </c>
       <c r="C250" t="s">
-        <v>568</v>
+        <v>646</v>
       </c>
       <c r="D250" t="s">
-        <v>810</v>
+        <v>972</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -7406,10 +8188,10 @@
         <v>256</v>
       </c>
       <c r="C251" t="s">
-        <v>569</v>
+        <v>647</v>
       </c>
       <c r="D251" t="s">
-        <v>811</v>
+        <v>973</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -7420,10 +8202,10 @@
         <v>257</v>
       </c>
       <c r="C252" t="s">
-        <v>570</v>
+        <v>648</v>
       </c>
       <c r="D252" t="s">
-        <v>812</v>
+        <v>974</v>
       </c>
       <c r="H252">
         <v>1</v>
@@ -7434,10 +8216,10 @@
         <v>258</v>
       </c>
       <c r="C253" t="s">
-        <v>571</v>
+        <v>649</v>
       </c>
       <c r="D253" t="s">
-        <v>813</v>
+        <v>975</v>
       </c>
       <c r="H253">
         <v>1</v>
@@ -7448,10 +8230,10 @@
         <v>259</v>
       </c>
       <c r="C254" t="s">
-        <v>572</v>
+        <v>650</v>
       </c>
       <c r="D254" t="s">
-        <v>814</v>
+        <v>976</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -7462,10 +8244,10 @@
         <v>260</v>
       </c>
       <c r="C255" t="s">
-        <v>573</v>
+        <v>651</v>
       </c>
       <c r="D255" t="s">
-        <v>815</v>
+        <v>977</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -7476,10 +8258,10 @@
         <v>261</v>
       </c>
       <c r="C256" t="s">
-        <v>574</v>
+        <v>652</v>
       </c>
       <c r="D256" t="s">
-        <v>816</v>
+        <v>978</v>
       </c>
       <c r="H256">
         <v>1</v>
@@ -7490,16 +8272,16 @@
         <v>262</v>
       </c>
       <c r="C257" t="s">
-        <v>575</v>
+        <v>653</v>
       </c>
       <c r="D257" t="s">
-        <v>817</v>
+        <v>979</v>
       </c>
       <c r="E257" t="s">
-        <v>934</v>
+        <v>1160</v>
       </c>
       <c r="F257" t="s">
-        <v>990</v>
+        <v>1160</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -7510,16 +8292,16 @@
         <v>263</v>
       </c>
       <c r="C258" t="s">
-        <v>576</v>
+        <v>654</v>
       </c>
       <c r="D258" t="s">
-        <v>818</v>
+        <v>980</v>
       </c>
       <c r="E258" t="s">
-        <v>935</v>
+        <v>1161</v>
       </c>
       <c r="F258" t="s">
-        <v>991</v>
+        <v>1161</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -7530,16 +8312,16 @@
         <v>264</v>
       </c>
       <c r="C259" t="s">
-        <v>577</v>
+        <v>655</v>
       </c>
       <c r="D259" t="s">
-        <v>819</v>
+        <v>981</v>
       </c>
       <c r="E259" t="s">
-        <v>936</v>
+        <v>1162</v>
       </c>
       <c r="F259" t="s">
-        <v>992</v>
+        <v>1162</v>
       </c>
       <c r="H259">
         <v>1</v>
@@ -7550,16 +8332,16 @@
         <v>265</v>
       </c>
       <c r="C260" t="s">
-        <v>578</v>
+        <v>656</v>
       </c>
       <c r="D260" t="s">
-        <v>820</v>
+        <v>982</v>
       </c>
       <c r="E260" t="s">
-        <v>937</v>
+        <v>1163</v>
       </c>
       <c r="F260" t="s">
-        <v>993</v>
+        <v>1163</v>
       </c>
       <c r="H260">
         <v>1</v>
@@ -7570,16 +8352,16 @@
         <v>266</v>
       </c>
       <c r="C261" t="s">
-        <v>579</v>
+        <v>657</v>
       </c>
       <c r="D261" t="s">
-        <v>821</v>
+        <v>983</v>
       </c>
       <c r="E261" t="s">
-        <v>938</v>
+        <v>1164</v>
       </c>
       <c r="F261" t="s">
-        <v>994</v>
+        <v>1164</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -7590,16 +8372,16 @@
         <v>267</v>
       </c>
       <c r="C262" t="s">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="D262" t="s">
-        <v>822</v>
+        <v>984</v>
       </c>
       <c r="E262" t="s">
-        <v>939</v>
+        <v>1165</v>
       </c>
       <c r="F262" t="s">
-        <v>995</v>
+        <v>1165</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -7610,16 +8392,16 @@
         <v>268</v>
       </c>
       <c r="C263" t="s">
-        <v>581</v>
+        <v>659</v>
       </c>
       <c r="D263" t="s">
-        <v>823</v>
+        <v>985</v>
       </c>
       <c r="E263" t="s">
-        <v>940</v>
+        <v>1166</v>
       </c>
       <c r="F263" t="s">
-        <v>996</v>
+        <v>1166</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -7630,16 +8412,16 @@
         <v>269</v>
       </c>
       <c r="C264" t="s">
-        <v>582</v>
+        <v>660</v>
       </c>
       <c r="D264" t="s">
-        <v>824</v>
+        <v>986</v>
       </c>
       <c r="E264" t="s">
-        <v>941</v>
+        <v>1167</v>
       </c>
       <c r="F264" t="s">
-        <v>997</v>
+        <v>1167</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -7650,16 +8432,16 @@
         <v>270</v>
       </c>
       <c r="C265" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="D265" t="s">
-        <v>825</v>
+        <v>987</v>
       </c>
       <c r="E265" t="s">
-        <v>942</v>
+        <v>1168</v>
       </c>
       <c r="F265" t="s">
-        <v>998</v>
+        <v>1168</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -7670,16 +8452,16 @@
         <v>271</v>
       </c>
       <c r="C266" t="s">
-        <v>584</v>
+        <v>662</v>
       </c>
       <c r="D266" t="s">
-        <v>796</v>
+        <v>958</v>
       </c>
       <c r="E266" t="s">
-        <v>943</v>
+        <v>1169</v>
       </c>
       <c r="F266" t="s">
-        <v>999</v>
+        <v>1169</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -7690,16 +8472,16 @@
         <v>272</v>
       </c>
       <c r="C267" t="s">
-        <v>585</v>
+        <v>663</v>
       </c>
       <c r="D267" t="s">
-        <v>826</v>
+        <v>988</v>
       </c>
       <c r="E267" t="s">
-        <v>944</v>
+        <v>1170</v>
       </c>
       <c r="F267" t="s">
-        <v>1000</v>
+        <v>1170</v>
       </c>
       <c r="H267">
         <v>1</v>
@@ -7710,16 +8492,16 @@
         <v>273</v>
       </c>
       <c r="C268" t="s">
-        <v>586</v>
+        <v>664</v>
       </c>
       <c r="D268" t="s">
-        <v>827</v>
+        <v>989</v>
       </c>
       <c r="E268" t="s">
-        <v>945</v>
+        <v>1171</v>
       </c>
       <c r="F268" t="s">
-        <v>1001</v>
+        <v>1171</v>
       </c>
       <c r="H268">
         <v>1</v>
@@ -7730,16 +8512,16 @@
         <v>274</v>
       </c>
       <c r="C269" t="s">
-        <v>587</v>
+        <v>665</v>
       </c>
       <c r="D269" t="s">
-        <v>828</v>
+        <v>990</v>
       </c>
       <c r="E269" t="s">
-        <v>946</v>
+        <v>1172</v>
       </c>
       <c r="F269" t="s">
-        <v>1002</v>
+        <v>1172</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -7750,16 +8532,16 @@
         <v>275</v>
       </c>
       <c r="C270" t="s">
-        <v>588</v>
+        <v>666</v>
       </c>
       <c r="D270" t="s">
-        <v>829</v>
+        <v>991</v>
       </c>
       <c r="E270" t="s">
-        <v>947</v>
+        <v>1173</v>
       </c>
       <c r="F270" t="s">
-        <v>1003</v>
+        <v>1173</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -7770,16 +8552,16 @@
         <v>276</v>
       </c>
       <c r="C271" t="s">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="D271" t="s">
-        <v>830</v>
+        <v>992</v>
       </c>
       <c r="E271" t="s">
-        <v>948</v>
+        <v>1174</v>
       </c>
       <c r="F271" t="s">
-        <v>1004</v>
+        <v>1174</v>
       </c>
       <c r="H271">
         <v>1</v>
@@ -7790,16 +8572,16 @@
         <v>277</v>
       </c>
       <c r="C272" t="s">
-        <v>590</v>
+        <v>668</v>
       </c>
       <c r="D272" t="s">
-        <v>831</v>
+        <v>993</v>
       </c>
       <c r="E272" t="s">
-        <v>949</v>
+        <v>1175</v>
       </c>
       <c r="F272" t="s">
-        <v>1005</v>
+        <v>1175</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -7810,16 +8592,16 @@
         <v>278</v>
       </c>
       <c r="C273" t="s">
-        <v>591</v>
+        <v>669</v>
       </c>
       <c r="D273" t="s">
-        <v>832</v>
+        <v>994</v>
       </c>
       <c r="E273" t="s">
-        <v>950</v>
+        <v>1176</v>
       </c>
       <c r="F273" t="s">
-        <v>1006</v>
+        <v>1176</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -7830,16 +8612,16 @@
         <v>279</v>
       </c>
       <c r="C274" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="D274" t="s">
-        <v>833</v>
+        <v>995</v>
       </c>
       <c r="E274" t="s">
-        <v>951</v>
+        <v>1177</v>
       </c>
       <c r="F274" t="s">
-        <v>1007</v>
+        <v>1177</v>
       </c>
       <c r="H274">
         <v>1</v>
@@ -7850,16 +8632,16 @@
         <v>280</v>
       </c>
       <c r="C275" t="s">
-        <v>593</v>
+        <v>671</v>
       </c>
       <c r="D275" t="s">
-        <v>834</v>
+        <v>996</v>
       </c>
       <c r="E275" t="s">
-        <v>952</v>
+        <v>1178</v>
       </c>
       <c r="F275" t="s">
-        <v>1008</v>
+        <v>1178</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -7870,10 +8652,7 @@
         <v>281</v>
       </c>
       <c r="C276" t="s">
-        <v>594</v>
-      </c>
-      <c r="F276" t="s">
-        <v>1009</v>
+        <v>672</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -7884,13 +8663,10 @@
         <v>282</v>
       </c>
       <c r="C277" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="D277" t="s">
-        <v>835</v>
-      </c>
-      <c r="F277" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="H277">
         <v>1</v>
@@ -7901,10 +8677,7 @@
         <v>283</v>
       </c>
       <c r="C278" t="s">
-        <v>596</v>
-      </c>
-      <c r="F278" t="s">
-        <v>1011</v>
+        <v>674</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -7915,10 +8688,7 @@
         <v>284</v>
       </c>
       <c r="C279" t="s">
-        <v>597</v>
-      </c>
-      <c r="F279" t="s">
-        <v>1012</v>
+        <v>675</v>
       </c>
       <c r="H279">
         <v>1</v>
@@ -7929,10 +8699,7 @@
         <v>285</v>
       </c>
       <c r="C280" t="s">
-        <v>598</v>
-      </c>
-      <c r="F280" t="s">
-        <v>1013</v>
+        <v>676</v>
       </c>
       <c r="H280">
         <v>1</v>
@@ -7943,10 +8710,10 @@
         <v>286</v>
       </c>
       <c r="C281" t="s">
-        <v>599</v>
+        <v>677</v>
       </c>
       <c r="D281" t="s">
-        <v>836</v>
+        <v>998</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -7957,13 +8724,13 @@
         <v>287</v>
       </c>
       <c r="C282" t="s">
-        <v>600</v>
+        <v>678</v>
       </c>
       <c r="D282" t="s">
-        <v>837</v>
+        <v>999</v>
       </c>
       <c r="G282" t="s">
-        <v>1040</v>
+        <v>1304</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -7974,24 +8741,24 @@
         <v>288</v>
       </c>
       <c r="C283" t="s">
-        <v>601</v>
+        <v>679</v>
       </c>
       <c r="D283" t="s">
-        <v>838</v>
+        <v>1000</v>
       </c>
       <c r="H283">
         <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A284" s="2" t="s">
+      <c r="A284" t="s">
         <v>289</v>
       </c>
       <c r="C284" t="s">
-        <v>602</v>
+        <v>680</v>
       </c>
       <c r="D284" t="s">
-        <v>839</v>
+        <v>1001</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -8002,7 +8769,7 @@
         <v>290</v>
       </c>
       <c r="C285" t="s">
-        <v>603</v>
+        <v>681</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -8013,10 +8780,10 @@
         <v>291</v>
       </c>
       <c r="C286" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="D286" t="s">
-        <v>840</v>
+        <v>1002</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -8027,10 +8794,10 @@
         <v>292</v>
       </c>
       <c r="C287" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
       <c r="D287" t="s">
-        <v>841</v>
+        <v>1003</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -8041,30 +8808,30 @@
         <v>293</v>
       </c>
       <c r="C288" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="D288" t="s">
-        <v>842</v>
+        <v>1004</v>
       </c>
       <c r="H288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>294</v>
       </c>
       <c r="C289" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="D289" t="s">
-        <v>843</v>
-      </c>
-      <c r="E289" s="3" t="s">
-        <v>953</v>
+        <v>1005</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1179</v>
       </c>
       <c r="F289" t="s">
-        <v>1014</v>
+        <v>1179</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -8075,16 +8842,16 @@
         <v>295</v>
       </c>
       <c r="C290" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="D290" t="s">
-        <v>844</v>
+        <v>1006</v>
       </c>
       <c r="E290" t="s">
-        <v>954</v>
+        <v>1180</v>
       </c>
       <c r="F290" t="s">
-        <v>1015</v>
+        <v>1180</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -8095,16 +8862,16 @@
         <v>296</v>
       </c>
       <c r="C291" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="D291" t="s">
-        <v>845</v>
+        <v>1007</v>
       </c>
       <c r="E291" t="s">
-        <v>955</v>
+        <v>1181</v>
       </c>
       <c r="F291" t="s">
-        <v>1016</v>
+        <v>1181</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -8115,16 +8882,16 @@
         <v>297</v>
       </c>
       <c r="C292" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="D292" t="s">
-        <v>846</v>
+        <v>1008</v>
       </c>
       <c r="E292" t="s">
-        <v>956</v>
+        <v>1182</v>
       </c>
       <c r="F292" t="s">
-        <v>1017</v>
+        <v>1182</v>
       </c>
       <c r="H292">
         <v>1</v>
@@ -8135,16 +8902,16 @@
         <v>298</v>
       </c>
       <c r="C293" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="D293" t="s">
-        <v>847</v>
+        <v>1009</v>
       </c>
       <c r="E293" t="s">
-        <v>957</v>
+        <v>1183</v>
       </c>
       <c r="F293" t="s">
-        <v>1018</v>
+        <v>1183</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -8155,16 +8922,16 @@
         <v>299</v>
       </c>
       <c r="C294" t="s">
-        <v>612</v>
+        <v>690</v>
       </c>
       <c r="D294" t="s">
-        <v>848</v>
+        <v>1010</v>
       </c>
       <c r="E294" t="s">
-        <v>958</v>
+        <v>1184</v>
       </c>
       <c r="F294" t="s">
-        <v>1019</v>
+        <v>1184</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -8175,16 +8942,16 @@
         <v>300</v>
       </c>
       <c r="C295" t="s">
-        <v>613</v>
+        <v>691</v>
       </c>
       <c r="D295" t="s">
-        <v>849</v>
+        <v>1011</v>
       </c>
       <c r="E295" t="s">
-        <v>959</v>
+        <v>1185</v>
       </c>
       <c r="F295" t="s">
-        <v>1020</v>
+        <v>1185</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -8195,16 +8962,16 @@
         <v>301</v>
       </c>
       <c r="C296" t="s">
-        <v>614</v>
+        <v>692</v>
       </c>
       <c r="D296" t="s">
-        <v>850</v>
+        <v>1012</v>
       </c>
       <c r="E296" t="s">
-        <v>960</v>
+        <v>1186</v>
       </c>
       <c r="F296" t="s">
-        <v>1021</v>
+        <v>1186</v>
       </c>
       <c r="H296">
         <v>1</v>
@@ -8212,19 +8979,19 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>302</v>
+        <v>1315</v>
       </c>
       <c r="C297" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="D297" t="s">
-        <v>851</v>
+        <v>1013</v>
       </c>
       <c r="E297" t="s">
-        <v>961</v>
+        <v>1187</v>
       </c>
       <c r="F297" t="s">
-        <v>1022</v>
+        <v>1314</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -8232,19 +8999,19 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C298" t="s">
-        <v>616</v>
+        <v>694</v>
       </c>
       <c r="D298" t="s">
-        <v>852</v>
+        <v>1014</v>
       </c>
       <c r="E298" t="s">
-        <v>962</v>
+        <v>1188</v>
       </c>
       <c r="F298" t="s">
-        <v>1023</v>
+        <v>1188</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -8252,19 +9019,19 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>304</v>
+        <v>1316</v>
       </c>
       <c r="C299" t="s">
-        <v>617</v>
+        <v>695</v>
       </c>
       <c r="D299" t="s">
-        <v>853</v>
+        <v>1015</v>
       </c>
       <c r="E299" t="s">
-        <v>963</v>
+        <v>1189</v>
       </c>
       <c r="F299" t="s">
-        <v>1024</v>
+        <v>1189</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -8272,19 +9039,19 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C300" t="s">
-        <v>618</v>
+        <v>696</v>
       </c>
       <c r="D300" t="s">
-        <v>854</v>
+        <v>1016</v>
       </c>
       <c r="E300" t="s">
-        <v>964</v>
+        <v>1190</v>
       </c>
       <c r="F300" t="s">
-        <v>1025</v>
+        <v>1190</v>
       </c>
       <c r="H300">
         <v>1</v>
@@ -8292,19 +9059,19 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C301" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="D301" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="E301" t="s">
-        <v>965</v>
+        <v>1191</v>
       </c>
       <c r="F301" t="s">
-        <v>1026</v>
+        <v>1191</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -8312,19 +9079,19 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C302" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="D302" t="s">
-        <v>855</v>
+        <v>1017</v>
       </c>
       <c r="E302" t="s">
-        <v>966</v>
+        <v>1192</v>
       </c>
       <c r="F302" t="s">
-        <v>1027</v>
+        <v>1192</v>
       </c>
       <c r="H302">
         <v>1</v>
@@ -8332,19 +9099,19 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C303" t="s">
-        <v>621</v>
+        <v>699</v>
       </c>
       <c r="D303" t="s">
-        <v>856</v>
+        <v>1018</v>
       </c>
       <c r="E303" t="s">
-        <v>967</v>
+        <v>1193</v>
       </c>
       <c r="F303" t="s">
-        <v>1028</v>
+        <v>1193</v>
       </c>
       <c r="H303">
         <v>1</v>
@@ -8352,16 +9119,19 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C304" t="s">
-        <v>622</v>
+        <v>700</v>
       </c>
       <c r="D304" t="s">
-        <v>857</v>
+        <v>1019</v>
       </c>
       <c r="E304" t="s">
-        <v>968</v>
+        <v>1194</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1194</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -8369,16 +9139,19 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C305" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="D305" t="s">
-        <v>858</v>
+        <v>1020</v>
       </c>
       <c r="E305" t="s">
-        <v>969</v>
+        <v>1195</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1195</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -8386,13 +9159,13 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C306" t="s">
-        <v>624</v>
+        <v>702</v>
       </c>
       <c r="D306" t="s">
-        <v>859</v>
+        <v>1021</v>
       </c>
       <c r="H306">
         <v>1</v>
@@ -8400,13 +9173,13 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C307" t="s">
-        <v>625</v>
+        <v>703</v>
       </c>
       <c r="D307" t="s">
-        <v>860</v>
+        <v>1022</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -8414,13 +9187,13 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C308" t="s">
-        <v>626</v>
+        <v>704</v>
       </c>
       <c r="D308" t="s">
-        <v>861</v>
+        <v>1023</v>
       </c>
       <c r="H308">
         <v>1</v>
@@ -8428,10 +9201,10 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C309" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -8439,16 +9212,19 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C310" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
       <c r="D310" t="s">
-        <v>862</v>
+        <v>1024</v>
       </c>
       <c r="E310" t="s">
-        <v>970</v>
+        <v>1196</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1196</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -8456,19 +9232,19 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C311" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="D311" t="s">
-        <v>863</v>
+        <v>1025</v>
       </c>
       <c r="E311" t="s">
-        <v>971</v>
+        <v>1197</v>
       </c>
       <c r="F311" t="s">
-        <v>1029</v>
+        <v>1197</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -8476,22 +9252,1495 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
+        <v>315</v>
+      </c>
+      <c r="C312" t="s">
+        <v>708</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>316</v>
+      </c>
+      <c r="C313" t="s">
+        <v>709</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
         <v>317</v>
       </c>
-      <c r="C312" t="s">
-        <v>630</v>
-      </c>
-      <c r="D312" t="s">
-        <v>864</v>
-      </c>
-      <c r="E312" t="s">
-        <v>972</v>
-      </c>
-      <c r="F312" t="s">
+      <c r="C314" t="s">
+        <v>710</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>318</v>
+      </c>
+      <c r="C315" t="s">
+        <v>711</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>319</v>
+      </c>
+      <c r="C316" t="s">
+        <v>712</v>
+      </c>
+      <c r="D316" t="s">
         <v>1030</v>
       </c>
-      <c r="H312">
-        <v>1</v>
+      <c r="F316" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>320</v>
+      </c>
+      <c r="C317" t="s">
+        <v>713</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>321</v>
+      </c>
+      <c r="C318" t="s">
+        <v>714</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>322</v>
+      </c>
+      <c r="C319" t="s">
+        <v>715</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>323</v>
+      </c>
+      <c r="C320" t="s">
+        <v>716</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>324</v>
+      </c>
+      <c r="C321" t="s">
+        <v>717</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>325</v>
+      </c>
+      <c r="C322" t="s">
+        <v>718</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>326</v>
+      </c>
+      <c r="C323" t="s">
+        <v>719</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F323" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>327</v>
+      </c>
+      <c r="C324" t="s">
+        <v>720</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>328</v>
+      </c>
+      <c r="C325" t="s">
+        <v>721</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F325" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>329</v>
+      </c>
+      <c r="C326" t="s">
+        <v>722</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F326" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>330</v>
+      </c>
+      <c r="C327" t="s">
+        <v>723</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F327" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C328" t="s">
+        <v>724</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C329" t="s">
+        <v>725</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>331</v>
+      </c>
+      <c r="C330" t="s">
+        <v>726</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C331" t="s">
+        <v>727</v>
+      </c>
+      <c r="D331" t="s">
+        <v>727</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="C332" t="s">
+        <v>728</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="C333" t="s">
+        <v>729</v>
+      </c>
+      <c r="D333" t="s">
+        <v>729</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="C334" t="s">
+        <v>730</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F334" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="C335" t="s">
+        <v>731</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="C336" t="s">
+        <v>732</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="C337" t="s">
+        <v>733</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C338" t="s">
+        <v>734</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+      <c r="C339" t="s">
+        <v>735</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+      <c r="C340" t="s">
+        <v>736</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+      <c r="C341" t="s">
+        <v>737</v>
+      </c>
+      <c r="D341" t="s">
+        <v>737</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+      <c r="C342" t="s">
+        <v>738</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+      <c r="C343" t="s">
+        <v>739</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+      <c r="C344" t="s">
+        <v>740</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+      <c r="C345" t="s">
+        <v>741</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+      <c r="C346" t="s">
+        <v>742</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+      <c r="C347" t="s">
+        <v>743</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F347" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+      <c r="C348" t="s">
+        <v>744</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+      <c r="C349" t="s">
+        <v>745</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+      <c r="C350" t="s">
+        <v>746</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F350" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+      <c r="C351" t="s">
+        <v>747</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F351" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+      <c r="C352" t="s">
+        <v>748</v>
+      </c>
+      <c r="E352" t="s">
+        <v>748</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+      <c r="C353" t="s">
+        <v>749</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+      <c r="C354" t="s">
+        <v>750</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+      <c r="C355" t="s">
+        <v>751</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+      <c r="C356" t="s">
+        <v>752</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+      <c r="C357" t="s">
+        <v>753</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F357" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+      <c r="C358" t="s">
+        <v>754</v>
+      </c>
+      <c r="F358" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+      <c r="C359" t="s">
+        <v>755</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F359" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+      <c r="C360" t="s">
+        <v>756</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F360" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+      <c r="C361" t="s">
+        <v>757</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F361" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+      <c r="C362" t="s">
+        <v>758</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+      <c r="C363" t="s">
+        <v>759</v>
+      </c>
+      <c r="H363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+      <c r="C364" t="s">
+        <v>760</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F364" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+      <c r="C365" t="s">
+        <v>761</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F365" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+      <c r="C366" t="s">
+        <v>762</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F366" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+      <c r="C367" t="s">
+        <v>457</v>
+      </c>
+      <c r="D367" t="s">
+        <v>835</v>
+      </c>
+      <c r="E367" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F367" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+      <c r="C368" t="s">
+        <v>763</v>
+      </c>
+      <c r="D368" t="s">
+        <v>763</v>
+      </c>
+      <c r="F368" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C369" t="s">
+        <v>764</v>
+      </c>
+      <c r="D369" t="s">
+        <v>849</v>
+      </c>
+      <c r="F369" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C370" t="s">
+        <v>765</v>
+      </c>
+      <c r="D370" t="s">
+        <v>851</v>
+      </c>
+      <c r="E370" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F370" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>368</v>
+      </c>
+      <c r="C371" t="s">
+        <v>766</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F371" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>369</v>
+      </c>
+      <c r="C372" t="s">
+        <v>767</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E372" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F372" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>370</v>
+      </c>
+      <c r="C373" t="s">
+        <v>768</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>371</v>
+      </c>
+      <c r="C374" t="s">
+        <v>769</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>372</v>
+      </c>
+      <c r="C375" t="s">
+        <v>770</v>
+      </c>
+      <c r="D375" t="s">
+        <v>770</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F375" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>373</v>
+      </c>
+      <c r="C376" t="s">
+        <v>771</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>374</v>
+      </c>
+      <c r="C377" t="s">
+        <v>772</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F377" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>375</v>
+      </c>
+      <c r="C378" t="s">
+        <v>773</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F378" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>376</v>
+      </c>
+      <c r="C379" t="s">
+        <v>774</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>377</v>
+      </c>
+      <c r="C380" t="s">
+        <v>775</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F380" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>378</v>
+      </c>
+      <c r="C381" t="s">
+        <v>776</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>379</v>
+      </c>
+      <c r="C382" t="s">
+        <v>777</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>380</v>
+      </c>
+      <c r="C383" t="s">
+        <v>778</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F383" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>381</v>
+      </c>
+      <c r="C384" t="s">
+        <v>779</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F384" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>382</v>
+      </c>
+      <c r="C385" t="s">
+        <v>780</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>383</v>
+      </c>
+      <c r="C386" t="s">
+        <v>781</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F386" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>384</v>
+      </c>
+      <c r="C387" t="s">
+        <v>782</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>385</v>
+      </c>
+      <c r="C388" t="s">
+        <v>783</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>386</v>
+      </c>
+      <c r="C389" t="s">
+        <v>784</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F389" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>387</v>
+      </c>
+      <c r="C390" t="s">
+        <v>785</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>388</v>
+      </c>
+      <c r="C391" t="s">
+        <v>786</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F391" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>389</v>
+      </c>
+      <c r="C392" t="s">
+        <v>787</v>
+      </c>
+      <c r="F392" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>390</v>
+      </c>
+      <c r="C393" t="s">
+        <v>788</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>391</v>
+      </c>
+      <c r="C394" t="s">
+        <v>789</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F394" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>392</v>
+      </c>
+      <c r="C395" t="s">
+        <v>790</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F395" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>393</v>
+      </c>
+      <c r="C396" t="s">
+        <v>791</v>
+      </c>
+      <c r="F396" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>394</v>
+      </c>
+      <c r="C397" t="s">
+        <v>792</v>
+      </c>
+      <c r="F397" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1309</v>
       </c>
     </row>
   </sheetData>
